--- a/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="264">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -245,6 +245,9 @@
     <t>STARR_028</t>
   </si>
   <si>
+    <t>STARR_031</t>
+  </si>
+  <si>
     <t>STARR_032</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
     <t>STARR_041</t>
   </si>
   <si>
+    <t>STARR_043</t>
+  </si>
+  <si>
     <t>STARR_049</t>
   </si>
   <si>
@@ -329,6 +335,9 @@
     <t>STARR_026_combine_force8966</t>
   </si>
   <si>
+    <t>STARR_031_force2072</t>
+  </si>
+  <si>
     <t>STARR_032_force3767</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
     <t>STARR_041_combine3</t>
   </si>
   <si>
+    <t>STARR_043_combine_force9146</t>
+  </si>
+  <si>
     <t>STARR_049_combine_force8498</t>
   </si>
   <si>
@@ -395,6 +407,9 @@
     <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -404,6 +419,9 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force9146/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8498/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -461,6 +479,9 @@
     <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -470,6 +491,9 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force9146/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8498/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -524,6 +548,9 @@
     <t>10X31081</t>
   </si>
   <si>
+    <t>10X31091</t>
+  </si>
+  <si>
     <t>P070720211</t>
   </si>
   <si>
@@ -566,6 +593,9 @@
     <t>SI-GA-E7</t>
   </si>
   <si>
+    <t>SI-GA-C8</t>
+  </si>
+  <si>
     <t>SI-GA-G8</t>
   </si>
   <si>
@@ -575,6 +605,9 @@
     <t>SI-GA-C7</t>
   </si>
   <si>
+    <t>SI-GA-D7</t>
+  </si>
+  <si>
     <t>SI-TT-D4</t>
   </si>
   <si>
@@ -617,6 +650,9 @@
     <t>CACGCCTT, GTATATAG, TCTCGGGC, AGGATACA</t>
   </si>
   <si>
+    <t>GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
+  </si>
+  <si>
     <t>TATGAGCT, CCGATAGC, ATACCCAA, GGCTGTTG</t>
   </si>
   <si>
@@ -624,6 +660,9 @@
   </si>
   <si>
     <t>GTCTCTCG,AATCTCTC,CGGAGGGA,TCAGAAAT</t>
+  </si>
+  <si>
+    <t>ATTTGCTA,TAGACACC,CCACAGGG,GGCGTTAT</t>
   </si>
   <si>
     <t>GCAGTATAGG</t>
@@ -1035,22 +1074,22 @@
         <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H2" t="n">
         <v>17.0</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" t="n">
         <v>230.0</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M2" t="n">
         <v>12660.0</v>
@@ -1113,7 +1152,7 @@
         <v>2974.0</v>
       </c>
       <c r="AG2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1122,28 +1161,28 @@
         <v>2.0220802E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AM2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AR2" t="n">
         <v>2.0190603E7</v>
@@ -1152,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="AT2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AU2" t="n">
         <v>10000.0</v>
@@ -1173,16 +1212,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="BC2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BE2" t="e">
         <v>#N/A</v>
@@ -1197,22 +1236,22 @@
         <v>20.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="BK2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="BL2" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="BN2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -1235,22 +1274,22 @@
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
         <v>18.0</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K3" t="n">
         <v>267.0</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M3" t="n">
         <v>7398.0</v>
@@ -1313,7 +1352,7 @@
         <v>6703.0</v>
       </c>
       <c r="AG3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1322,28 +1361,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AM3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AR3" t="n">
         <v>2.0190624E7</v>
@@ -1352,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="AT3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AU3" t="n">
         <v>10000.0</v>
@@ -1373,16 +1412,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="BC3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BE3" t="e">
         <v>#N/A</v>
@@ -1397,22 +1436,22 @@
         <v>45.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="BK3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="BL3" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="BN3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -1435,22 +1474,22 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" t="n">
         <v>48.0</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K4" t="n">
         <v>266.0</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M4" t="n">
         <v>9907.0</v>
@@ -1513,7 +1552,7 @@
         <v>5863.0</v>
       </c>
       <c r="AG4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1522,34 +1561,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AR4" t="n">
         <v>2.0190829E7</v>
       </c>
       <c r="AS4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AT4" t="e">
         <v>#N/A</v>
@@ -1558,7 +1597,7 @@
         <v>8714.0</v>
       </c>
       <c r="AV4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AW4" t="n">
         <v>50000.0</v>
@@ -1573,16 +1612,16 @@
         <v>2.99217E9</v>
       </c>
       <c r="BA4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="BC4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BE4" t="n">
         <v>3.0</v>
@@ -1591,28 +1630,28 @@
         <v>448.0</v>
       </c>
       <c r="BG4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH4" t="n">
         <v>50.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="BM4" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="BN4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -1635,22 +1674,22 @@
         <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" t="n">
         <v>70.0</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="n">
         <v>247.0</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M5" t="n">
         <v>8966.0</v>
@@ -1713,7 +1752,7 @@
         <v>3932.0</v>
       </c>
       <c r="AG5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -1722,28 +1761,28 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AM5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AR5" t="n">
         <v>2.0190909E7</v>
@@ -1758,7 +1797,7 @@
         <v>6512.0</v>
       </c>
       <c r="AV5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AW5" t="n">
         <v>25000.0</v>
@@ -1773,16 +1812,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="BC5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BE5" t="e">
         <v>#N/A</v>
@@ -1791,28 +1830,28 @@
         <v>#N/A</v>
       </c>
       <c r="BG5" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="BH5" t="n">
         <v>20.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ5" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK5" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL5" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="BM5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="BN5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
@@ -1835,16 +1874,16 @@
         <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H6" t="n">
         <v>28.0</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K6" t="n">
         <v>44.0</v>
@@ -1913,37 +1952,37 @@
         <v>3777.0</v>
       </c>
       <c r="AG6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AI6" t="e">
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AR6" t="n">
         <v>2.0190909E7</v>
@@ -1958,7 +1997,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW6" t="n">
         <v>50000.0</v>
@@ -1973,16 +2012,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="BC6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BE6" t="e">
         <v>#N/A</v>
@@ -1991,28 +2030,28 @@
         <v>510.0</v>
       </c>
       <c r="BG6" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH6" t="n">
         <v>40.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ6" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="BK6" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="BL6" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="BN6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -2035,46 +2074,46 @@
         <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" t="n">
-        <v>268.0</v>
+        <v>267.0</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M7" t="n">
-        <v>3767.0</v>
+        <v>2072.0</v>
       </c>
       <c r="N7" t="n">
-        <v>117996.0</v>
+        <v>208533.0</v>
       </c>
       <c r="O7" t="n">
-        <v>1515.0</v>
+        <v>2300.0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.44489382E8</v>
+        <v>4.32080145E8</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.9</v>
+        <v>97.3</v>
       </c>
       <c r="R7" t="n">
-        <v>90.2</v>
+        <v>77.0</v>
       </c>
       <c r="S7" t="n">
         <v>95.4</v>
       </c>
       <c r="T7" t="n">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="U7" t="e">
         <v>#N/A</v>
@@ -2083,37 +2122,37 @@
         <v>95.0</v>
       </c>
       <c r="W7" t="n">
-        <v>90.8</v>
+        <v>94.6</v>
       </c>
       <c r="X7" t="n">
-        <v>80.3</v>
+        <v>77.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.2</v>
+        <v>50.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.0</v>
+        <v>64.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>64.4</v>
+        <v>38.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>24483.0</v>
+        <v>24817.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>2687.0</v>
+        <v>4672.0</v>
       </c>
       <c r="AG7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2122,31 +2161,31 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AM7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.0191018E7</v>
+        <v>2.0190905E7</v>
       </c>
       <c r="AS7" t="s">
         <v>77</v>
@@ -2158,72 +2197,72 @@
         <v>10000.0</v>
       </c>
       <c r="AV7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW7" t="n">
-        <v>50001.0</v>
+        <v>50000.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.0001E8</v>
+        <v>5.0E8</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2000031999872</v>
+        <v>0.1999992000032</v>
       </c>
       <c r="AZ7" t="n">
         <v>2.50001E9</v>
       </c>
       <c r="BA7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BB7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="BC7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BE7" t="e">
         <v>#N/A</v>
       </c>
       <c r="BF7" t="n">
-        <v>406.0</v>
+        <v>504.0</v>
       </c>
       <c r="BG7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH7" t="n">
         <v>40.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="BK7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="BL7" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="BN7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.0210126E7</v>
+        <v>2.0191121E7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>3.028254122E9</v>
+        <v>2.529556633E9</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
@@ -2235,195 +2274,195 @@
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="n">
-        <v>92.0</v>
+        <v>268.0</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
-        <v>2000.0</v>
+        <v>3767.0</v>
       </c>
       <c r="N8" t="n">
-        <v>359483.0</v>
+        <v>117996.0</v>
       </c>
       <c r="O8" t="n">
-        <v>1551.0</v>
+        <v>1515.0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.18965036E8</v>
+        <v>4.44489382E8</v>
       </c>
       <c r="Q8" t="n">
         <v>97.9</v>
       </c>
       <c r="R8" t="n">
-        <v>93.1</v>
+        <v>90.2</v>
       </c>
       <c r="S8" t="n">
-        <v>95.6</v>
+        <v>95.4</v>
       </c>
       <c r="T8" t="n">
-        <v>92.5</v>
+        <v>92.9</v>
       </c>
       <c r="U8" t="e">
         <v>#N/A</v>
       </c>
       <c r="V8" t="n">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="W8" t="n">
-        <v>89.3</v>
+        <v>90.8</v>
       </c>
       <c r="X8" t="n">
-        <v>78.7</v>
+        <v>80.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>48.9</v>
+        <v>56.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>16.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>64.7</v>
+        <v>67.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>52.9</v>
+        <v>64.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>24674.0</v>
+        <v>24483.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>2616.0</v>
+        <v>2687.0</v>
       </c>
       <c r="AG8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.0211103E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.0200211E7</v>
+        <v>2.0191018E7</v>
       </c>
       <c r="AS8" t="s">
         <v>78</v>
       </c>
-      <c r="AT8" t="s">
-        <v>168</v>
+      <c r="AT8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU8" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AW8" t="n">
-        <v>75000.0</v>
+        <v>50001.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.5E8</v>
+        <v>5.0001E8</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.25</v>
+        <v>0.2000031999872</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.0E9</v>
+        <v>2.50001E9</v>
       </c>
       <c r="BA8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BB8" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="BC8" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD8" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>2.03</v>
+        <v>226</v>
+      </c>
+      <c r="BE8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BF8" t="n">
-        <v>328.0</v>
+        <v>406.0</v>
       </c>
       <c r="BG8" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="BH8" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="BK8" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="BL8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BM8" t="e">
-        <v>#N/A</v>
+      <c r="BM8" t="s">
+        <v>247</v>
       </c>
       <c r="BN8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0210126E7</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>2.901329438E9</v>
+        <v>3.028254122E9</v>
       </c>
       <c r="D9" t="e">
         <v>#N/A</v>
@@ -2435,195 +2474,195 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" t="n">
-        <v>71.0</v>
+        <v>34.0</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>156.0</v>
+        <v>92.0</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>15847.0</v>
+        <v>2000.0</v>
       </c>
       <c r="N9" t="n">
-        <v>97871.0</v>
+        <v>359483.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1959.0</v>
+        <v>1551.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55096837E9</v>
+        <v>7.18965036E8</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="R9" t="n">
-        <v>81.8</v>
+        <v>93.1</v>
       </c>
       <c r="S9" t="n">
         <v>95.6</v>
       </c>
       <c r="T9" t="n">
-        <v>93.9</v>
+        <v>92.5</v>
       </c>
       <c r="U9" t="e">
         <v>#N/A</v>
       </c>
       <c r="V9" t="n">
-        <v>95.1</v>
+        <v>94.9</v>
       </c>
       <c r="W9" t="n">
-        <v>94.4</v>
+        <v>89.3</v>
       </c>
       <c r="X9" t="n">
-        <v>82.2</v>
+        <v>78.7</v>
       </c>
       <c r="Y9" t="n">
         <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>53.9</v>
+        <v>48.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>68.1</v>
+        <v>64.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>79.2</v>
+        <v>52.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>29138.0</v>
+        <v>24674.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3038.0</v>
+        <v>2616.0</v>
       </c>
       <c r="AG9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH9" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.0220624E7</v>
+        <v>2.0211103E7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AM9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.0190923E7</v>
+        <v>2.0200211E7</v>
       </c>
       <c r="AS9" t="s">
         <v>79</v>
       </c>
       <c r="AT9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AU9" t="n">
-        <v>12710.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AV9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AW9" t="n">
-        <v>35000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.4485E8</v>
+        <v>7.5E8</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.151</v>
+        <v>0.25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.9548E9</v>
+        <v>3.0E9</v>
       </c>
       <c r="BA9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="BB9" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="BC9" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF9" t="e">
-        <v>#N/A</v>
+        <v>226</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>328.0</v>
       </c>
       <c r="BG9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="BH9" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ9" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK9" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>236</v>
+        <v>244</v>
+      </c>
+      <c r="BL9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BM9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BN9" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>2.590729371E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>
@@ -2635,184 +2674,184 @@
         <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H10" t="n">
-        <v>59.0</v>
+        <v>71.0</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" t="n">
-        <v>270.0</v>
+        <v>156.0</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>8300.0</v>
+        <v>15847.0</v>
       </c>
       <c r="N10" t="n">
-        <v>93136.0</v>
+        <v>97871.0</v>
       </c>
       <c r="O10" t="n">
-        <v>3683.0</v>
+        <v>1959.0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.7302905E8</v>
+        <v>1.55096837E9</v>
       </c>
       <c r="Q10" t="n">
-        <v>97.5</v>
+        <v>98.0</v>
       </c>
       <c r="R10" t="n">
-        <v>67.7</v>
+        <v>81.8</v>
       </c>
       <c r="S10" t="n">
-        <v>94.6</v>
+        <v>95.6</v>
       </c>
       <c r="T10" t="n">
-        <v>93.4</v>
+        <v>93.9</v>
       </c>
       <c r="U10" t="e">
         <v>#N/A</v>
       </c>
       <c r="V10" t="n">
-        <v>94.1</v>
+        <v>95.1</v>
       </c>
       <c r="W10" t="n">
-        <v>96.4</v>
+        <v>94.4</v>
       </c>
       <c r="X10" t="n">
-        <v>89.7</v>
+        <v>82.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>61.6</v>
+        <v>53.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>73.2</v>
+        <v>68.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>79.4</v>
+        <v>79.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>28464.0</v>
+        <v>29138.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>10919.0</v>
+        <v>3038.0</v>
       </c>
       <c r="AG10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220624E7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.0210409E7</v>
+        <v>2.0190923E7</v>
       </c>
       <c r="AS10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT10" t="e">
-        <v>#N/A</v>
+        <v>80</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>177</v>
       </c>
       <c r="AU10" t="n">
-        <v>8464.0</v>
+        <v>12710.0</v>
       </c>
       <c r="AV10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AW10" t="n">
-        <v>35280.0</v>
+        <v>35000.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.9860992E8</v>
+        <v>4.4485E8</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0971397380115092</v>
+        <v>0.151</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.07402435E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA10" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BB10" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="BC10" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BD10" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>494.0</v>
+        <v>226</v>
+      </c>
+      <c r="BE10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BG10" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="BH10" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ10" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK10" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL10" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="BM10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="BN10" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11">
@@ -2835,85 +2874,85 @@
         <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H11" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
-        <v>271.0</v>
+        <v>269.0</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>5793.0</v>
+        <v>9146.0</v>
       </c>
       <c r="N11" t="n">
-        <v>121886.0</v>
+        <v>95965.0</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.0</v>
+        <v>2390.0</v>
       </c>
       <c r="P11" t="n">
-        <v>7.06088154E8</v>
+        <v>8.77693939E8</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.6</v>
+        <v>97.3</v>
       </c>
       <c r="R11" t="n">
-        <v>82.4</v>
+        <v>83.3</v>
       </c>
       <c r="S11" t="n">
-        <v>96.0</v>
+        <v>95.6</v>
       </c>
       <c r="T11" t="n">
-        <v>93.1</v>
+        <v>93.9</v>
       </c>
       <c r="U11" t="e">
         <v>#N/A</v>
       </c>
       <c r="V11" t="n">
-        <v>95.3</v>
+        <v>95.1</v>
       </c>
       <c r="W11" t="n">
-        <v>92.9</v>
+        <v>92.3</v>
       </c>
       <c r="X11" t="n">
-        <v>84.7</v>
+        <v>80.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>49.0</v>
+        <v>55.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>27.1</v>
+        <v>17.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>57.0</v>
+        <v>67.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>73.7</v>
+        <v>79.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28625.0</v>
+        <v>27946.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>5646.0</v>
+        <v>5029.0</v>
       </c>
       <c r="AG11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
@@ -2922,108 +2961,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AM11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.0211028E7</v>
+        <v>2.0201119E7</v>
       </c>
       <c r="AS11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT11" t="e">
-        <v>#N/A</v>
+        <v>81</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>178</v>
       </c>
       <c r="AU11" t="n">
-        <v>10000.0</v>
+        <v>9886.0</v>
       </c>
       <c r="AV11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AW11" t="n">
-        <v>70000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.0E8</v>
+        <v>2.4715E8</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.236902666847164</v>
+        <v>0.084</v>
       </c>
       <c r="AZ11" t="n">
         <v>2.9548E9</v>
       </c>
       <c r="BA11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="BB11" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="BC11" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="BD11" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>454.0</v>
+        <v>226</v>
+      </c>
+      <c r="BE11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BG11" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="BH11" t="n">
         <v>20.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ11" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK11" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL11" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="BM11" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="BN11" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>3.022916505E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -3035,85 +3074,85 @@
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" t="n">
-        <v>115.0</v>
+        <v>59.0</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="n">
-        <v>272.0</v>
+        <v>270.0</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>9464.0</v>
+        <v>8300.0</v>
       </c>
       <c r="N12" t="n">
-        <v>148705.0</v>
+        <v>93136.0</v>
       </c>
       <c r="O12" t="n">
-        <v>3131.0</v>
+        <v>3683.0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.407347538E9</v>
+        <v>7.7302905E8</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.1</v>
+        <v>97.5</v>
       </c>
       <c r="R12" t="n">
-        <v>79.1</v>
+        <v>67.7</v>
       </c>
       <c r="S12" t="n">
-        <v>96.1</v>
+        <v>94.6</v>
       </c>
       <c r="T12" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="U12" t="e">
         <v>#N/A</v>
       </c>
       <c r="V12" t="n">
-        <v>95.4</v>
+        <v>94.1</v>
       </c>
       <c r="W12" t="n">
-        <v>95.8</v>
+        <v>96.4</v>
       </c>
       <c r="X12" t="n">
-        <v>90.3</v>
+        <v>89.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>57.7</v>
+        <v>61.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>23.8</v>
+        <v>20.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>48.3</v>
+        <v>73.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>31.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>70.9</v>
+        <v>79.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>29575.0</v>
+        <v>28464.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>7757.0</v>
+        <v>10919.0</v>
       </c>
       <c r="AG12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
@@ -3122,108 +3161,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.0211111E7</v>
+        <v>2.0210409E7</v>
       </c>
       <c r="AS12" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="AT12" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU12" t="n">
-        <v>13939.0</v>
+        <v>8464.0</v>
       </c>
       <c r="AV12" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AW12" t="n">
-        <v>47723.0</v>
+        <v>35280.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.65210897E8</v>
+        <v>2.9860992E8</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.251783420752951</v>
+        <v>0.0971397380115092</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.641996423E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BA12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BB12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BC12" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BD12" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="BF12" t="n">
-        <v>470.0</v>
+        <v>494.0</v>
       </c>
       <c r="BG12" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH12" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ12" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK12" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="BM12" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="BN12" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" t="n">
-        <v>3.022916505E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -3235,85 +3274,85 @@
         <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" t="n">
-        <v>113.0</v>
+        <v>73.0</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13" t="n">
-        <v>273.0</v>
+        <v>271.0</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" t="n">
-        <v>7508.0</v>
+        <v>5793.0</v>
       </c>
       <c r="N13" t="n">
-        <v>114259.0</v>
+        <v>121886.0</v>
       </c>
       <c r="O13" t="n">
-        <v>3071.0</v>
+        <v>2572.0</v>
       </c>
       <c r="P13" t="n">
-        <v>8.57858458E8</v>
+        <v>7.06088154E8</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.2</v>
+        <v>97.6</v>
       </c>
       <c r="R13" t="n">
-        <v>68.3</v>
+        <v>82.4</v>
       </c>
       <c r="S13" t="n">
         <v>96.0</v>
       </c>
       <c r="T13" t="n">
-        <v>94.0</v>
+        <v>93.1</v>
       </c>
       <c r="U13" t="e">
         <v>#N/A</v>
       </c>
       <c r="V13" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="W13" t="n">
-        <v>95.8</v>
+        <v>92.9</v>
       </c>
       <c r="X13" t="n">
-        <v>88.9</v>
+        <v>84.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>59.1</v>
+        <v>49.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.7</v>
+        <v>27.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>63.9</v>
+        <v>57.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.1</v>
+        <v>17.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>70.8</v>
+        <v>73.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>28945.0</v>
+        <v>28625.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>7878.0</v>
+        <v>5646.0</v>
       </c>
       <c r="AG13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH13" t="e">
         <v>#N/A</v>
@@ -3322,97 +3361,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AM13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.021121E7</v>
+        <v>2.0211028E7</v>
       </c>
       <c r="AS13" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="AT13" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU13" t="n">
-        <v>9511.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AV13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AW13" t="n">
-        <v>39816.0</v>
+        <v>70000.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.78689976E8</v>
+        <v>7.0E8</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.14333477998051</v>
+        <v>0.236902666847164</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.641996423E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA13" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BB13" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="BC13" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="BD13" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="BE13" t="n">
-        <v>3.27</v>
+        <v>5.24</v>
       </c>
       <c r="BF13" t="n">
-        <v>470.0</v>
+        <v>454.0</v>
       </c>
       <c r="BG13" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="BH13" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI13" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ13" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK13" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL13" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="BM13" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="BN13" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
@@ -3435,85 +3474,85 @@
         <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" t="n">
-        <v>274.0</v>
+        <v>272.0</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M14" t="n">
-        <v>8196.0</v>
+        <v>9464.0</v>
       </c>
       <c r="N14" t="n">
-        <v>97650.0</v>
+        <v>148705.0</v>
       </c>
       <c r="O14" t="n">
-        <v>2773.0</v>
+        <v>3131.0</v>
       </c>
       <c r="P14" t="n">
-        <v>8.00342375E8</v>
+        <v>1.407347538E9</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.0</v>
+        <v>96.1</v>
       </c>
       <c r="R14" t="n">
-        <v>78.8</v>
+        <v>79.1</v>
       </c>
       <c r="S14" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="U14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="W14" t="n">
         <v>95.8</v>
       </c>
-      <c r="T14" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="n">
-        <v>95.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>96.5</v>
-      </c>
       <c r="X14" t="n">
-        <v>91.0</v>
+        <v>90.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.8</v>
+        <v>8.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>58.5</v>
+        <v>57.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>62.7</v>
+        <v>48.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>18.9</v>
+        <v>31.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>84.3</v>
+        <v>70.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>29019.0</v>
+        <v>29575.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>6762.0</v>
+        <v>7757.0</v>
       </c>
       <c r="AG14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
@@ -3522,31 +3561,31 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AM14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.0220311E7</v>
+        <v>2.0211111E7</v>
       </c>
       <c r="AS14" t="s">
         <v>84</v>
@@ -3555,34 +3594,34 @@
         <v>#N/A</v>
       </c>
       <c r="AU14" t="n">
-        <v>8650.0</v>
+        <v>13939.0</v>
       </c>
       <c r="AV14" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AW14" t="n">
-        <v>13418.0</v>
+        <v>47723.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.160657E8</v>
+        <v>6.65210897E8</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0439310587211949</v>
+        <v>0.251783420752951</v>
       </c>
       <c r="AZ14" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA14" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="BB14" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="BC14" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="BD14" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="BE14" t="n">
         <v>3.27</v>
@@ -3591,28 +3630,28 @@
         <v>470.0</v>
       </c>
       <c r="BG14" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH14" t="n">
         <v>30.0</v>
       </c>
       <c r="BI14" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ14" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK14" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL14" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BM14" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN14" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
@@ -3620,10 +3659,10 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
-        <v>3.069499968E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -3635,85 +3674,85 @@
         <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H15" t="n">
-        <v>119.0</v>
+        <v>113.0</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0</v>
+        <v>273.0</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M15" t="n">
-        <v>11261.0</v>
+        <v>7508.0</v>
       </c>
       <c r="N15" t="n">
-        <v>113321.0</v>
+        <v>114259.0</v>
       </c>
       <c r="O15" t="n">
-        <v>3604.0</v>
+        <v>3071.0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.276111489E9</v>
+        <v>8.57858458E8</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.0</v>
+        <v>98.2</v>
       </c>
       <c r="R15" t="n">
-        <v>72.5</v>
+        <v>68.3</v>
       </c>
       <c r="S15" t="n">
         <v>96.0</v>
       </c>
       <c r="T15" t="n">
-        <v>94.4</v>
+        <v>94.0</v>
       </c>
       <c r="U15" t="e">
         <v>#N/A</v>
       </c>
       <c r="V15" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="W15" t="n">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="X15" t="n">
-        <v>89.4</v>
+        <v>88.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>54.1</v>
+        <v>59.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>27.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>64.3</v>
+        <v>63.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.7</v>
+        <v>14.1</v>
       </c>
       <c r="AD15" t="n">
         <v>70.8</v>
       </c>
       <c r="AE15" t="n">
-        <v>29580.0</v>
+        <v>28945.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>9346.0</v>
+        <v>7878.0</v>
       </c>
       <c r="AG15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
@@ -3722,31 +3761,31 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.0220304E7</v>
+        <v>2.021121E7</v>
       </c>
       <c r="AS15" t="s">
         <v>85</v>
@@ -3755,64 +3794,64 @@
         <v>#N/A</v>
       </c>
       <c r="AU15" t="n">
-        <v>13279.0</v>
+        <v>9511.0</v>
       </c>
       <c r="AV15" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AW15" t="n">
-        <v>45518.0</v>
+        <v>39816.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.04433522E8</v>
+        <v>3.78689976E8</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.223433630117804</v>
+        <v>0.14333477998051</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.705203875E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA15" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="BB15" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="BC15" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="BD15" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="BF15" t="n">
-        <v>480.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG15" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH15" t="n">
         <v>30.0</v>
       </c>
       <c r="BI15" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ15" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK15" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL15" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BM15" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN15" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16">
@@ -3835,118 +3874,118 @@
         <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" t="n">
-        <v>116.0</v>
+        <v>114.0</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" t="n">
-        <v>254.0</v>
+        <v>274.0</v>
       </c>
       <c r="L16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M16" t="n">
-        <v>13147.0</v>
+        <v>8196.0</v>
       </c>
       <c r="N16" t="n">
-        <v>99921.0</v>
+        <v>97650.0</v>
       </c>
       <c r="O16" t="n">
-        <v>2630.0</v>
+        <v>2773.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.313660155E9</v>
+        <v>8.00342375E8</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.3</v>
+        <v>78.8</v>
       </c>
       <c r="S16" t="n">
-        <v>96.1</v>
+        <v>95.8</v>
       </c>
       <c r="T16" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="U16" t="e">
         <v>#N/A</v>
       </c>
       <c r="V16" t="n">
-        <v>95.5</v>
+        <v>95.1</v>
       </c>
       <c r="W16" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="X16" t="n">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>60.7</v>
+        <v>58.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.0</v>
+        <v>24.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>64.3</v>
+        <v>62.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.6</v>
+        <v>18.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>81.9</v>
+        <v>84.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>29810.0</v>
+        <v>29019.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>5861.0</v>
+        <v>6762.0</v>
       </c>
       <c r="AG16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.0220325E7</v>
+        <v>2.0220311E7</v>
       </c>
       <c r="AS16" t="s">
         <v>86</v>
@@ -3955,34 +3994,34 @@
         <v>#N/A</v>
       </c>
       <c r="AU16" t="n">
-        <v>12639.0</v>
+        <v>8650.0</v>
       </c>
       <c r="AV16" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AW16" t="n">
-        <v>25339.0</v>
+        <v>13418.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.20259621E8</v>
+        <v>1.160657E8</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.121218794322342</v>
+        <v>0.0439310587211949</v>
       </c>
       <c r="AZ16" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA16" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="BC16" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="BD16" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BE16" t="n">
         <v>3.27</v>
@@ -3991,28 +4030,28 @@
         <v>470.0</v>
       </c>
       <c r="BG16" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH16" t="n">
         <v>30.0</v>
       </c>
       <c r="BI16" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ16" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK16" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL16" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BM16" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN16" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
@@ -4035,85 +4074,85 @@
         <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" t="n">
-        <v>121.0</v>
+        <v>119.0</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K17" t="n">
-        <v>276.0</v>
+        <v>275.0</v>
       </c>
       <c r="L17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17" t="n">
-        <v>18792.0</v>
+        <v>11261.0</v>
       </c>
       <c r="N17" t="n">
-        <v>101242.0</v>
+        <v>113321.0</v>
       </c>
       <c r="O17" t="n">
-        <v>2548.0</v>
+        <v>3604.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9025476E9</v>
+        <v>1.276111489E9</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="R17" t="n">
-        <v>81.7</v>
+        <v>72.5</v>
       </c>
       <c r="S17" t="n">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="T17" t="n">
-        <v>94.2</v>
+        <v>94.4</v>
       </c>
       <c r="U17" t="e">
         <v>#N/A</v>
       </c>
       <c r="V17" t="n">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="W17" t="n">
-        <v>96.6</v>
+        <v>95.9</v>
       </c>
       <c r="X17" t="n">
-        <v>91.2</v>
+        <v>89.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>60.3</v>
+        <v>64.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>21.3</v>
+        <v>15.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>84.4</v>
+        <v>70.8</v>
       </c>
       <c r="AE17" t="n">
-        <v>30002.0</v>
+        <v>29580.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>5372.0</v>
+        <v>9346.0</v>
       </c>
       <c r="AG17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
@@ -4122,31 +4161,31 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AM17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ17" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.0220407E7</v>
+        <v>2.0220304E7</v>
       </c>
       <c r="AS17" t="s">
         <v>87</v>
@@ -4155,34 +4194,34 @@
         <v>#N/A</v>
       </c>
       <c r="AU17" t="n">
-        <v>17131.0</v>
+        <v>13279.0</v>
       </c>
       <c r="AV17" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AW17" t="n">
-        <v>57147.0</v>
+        <v>45518.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>9.78985257E8</v>
+        <v>6.04433522E8</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.361889640203181</v>
+        <v>0.223433630117804</v>
       </c>
       <c r="AZ17" t="n">
         <v>2.705203875E9</v>
       </c>
       <c r="BA17" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="BB17" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="BC17" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="BD17" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="BE17" t="n">
         <v>3.23</v>
@@ -4191,39 +4230,39 @@
         <v>480.0</v>
       </c>
       <c r="BG17" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH17" t="n">
         <v>30.0</v>
       </c>
       <c r="BI17" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ17" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK17" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL17" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BM17" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN17" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.0220715E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>2.686871619E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D18" t="e">
         <v>#N/A</v>
@@ -4235,118 +4274,118 @@
         <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" t="n">
-        <v>99.0</v>
+        <v>116.0</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K18" t="n">
-        <v>279.0</v>
+        <v>254.0</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" t="n">
-        <v>4270.0</v>
+        <v>13147.0</v>
       </c>
       <c r="N18" t="n">
-        <v>112157.0</v>
+        <v>99921.0</v>
       </c>
       <c r="O18" t="n">
-        <v>3192.0</v>
+        <v>2630.0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.78908775E8</v>
+        <v>1.313660155E9</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="R18" t="n">
-        <v>75.6</v>
+        <v>76.3</v>
       </c>
       <c r="S18" t="n">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="T18" t="n">
-        <v>94.7</v>
+        <v>93.8</v>
       </c>
       <c r="U18" t="e">
         <v>#N/A</v>
       </c>
       <c r="V18" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="W18" t="n">
-        <v>95.5</v>
+        <v>96.3</v>
       </c>
       <c r="X18" t="n">
-        <v>88.2</v>
+        <v>91.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>57.3</v>
+        <v>60.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.1</v>
+        <v>22.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>63.8</v>
+        <v>64.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.9</v>
+        <v>16.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>72.2</v>
+        <v>81.9</v>
       </c>
       <c r="AE18" t="n">
-        <v>28245.0</v>
+        <v>29810.0</v>
       </c>
       <c r="AF18" t="n">
-        <v>8170.0</v>
+        <v>5861.0</v>
       </c>
       <c r="AG18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH18" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.0220818E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AM18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ18" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.0220517E7</v>
+        <v>2.0220325E7</v>
       </c>
       <c r="AS18" t="s">
         <v>88</v>
@@ -4355,75 +4394,75 @@
         <v>#N/A</v>
       </c>
       <c r="AU18" t="n">
-        <v>10000.0</v>
+        <v>12639.0</v>
       </c>
       <c r="AV18" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AW18" t="n">
-        <v>60000.0</v>
+        <v>25339.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.0E8</v>
+        <v>3.20259621E8</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.2</v>
+        <v>0.121218794322342</v>
       </c>
       <c r="AZ18" t="n">
-        <v>3.0E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA18" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="BB18" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="BC18" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="BD18" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="BE18" t="n">
-        <v>3.02</v>
+        <v>3.27</v>
       </c>
       <c r="BF18" t="n">
-        <v>520.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG18" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH18" t="n">
         <v>30.0</v>
       </c>
       <c r="BI18" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BJ18" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BK18" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="BL18" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BM18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="BN18" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.0220718E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
-        <v>3.002834824E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -4435,85 +4474,85 @@
         <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" t="n">
-        <v>107.0</v>
+        <v>121.0</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" t="n">
-        <v>280.0</v>
+        <v>276.0</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M19" t="n">
-        <v>9000.0</v>
+        <v>18792.0</v>
       </c>
       <c r="N19" t="n">
-        <v>282445.0</v>
+        <v>101242.0</v>
       </c>
       <c r="O19" t="n">
-        <v>2156.0</v>
+        <v>2548.0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.542002423E9</v>
+        <v>1.9025476E9</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.8</v>
+        <v>97.9</v>
       </c>
       <c r="R19" t="n">
-        <v>87.9</v>
+        <v>81.7</v>
       </c>
       <c r="S19" t="n">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="T19" t="n">
-        <v>93.0</v>
+        <v>94.2</v>
       </c>
       <c r="U19" t="e">
         <v>#N/A</v>
       </c>
       <c r="V19" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="W19" t="n">
-        <v>95.6</v>
+        <v>96.6</v>
       </c>
       <c r="X19" t="n">
-        <v>90.2</v>
+        <v>91.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>61.5</v>
+        <v>54.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.6</v>
+        <v>28.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>46.3</v>
+        <v>60.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>33.5</v>
+        <v>21.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>83.2</v>
+        <v>84.4</v>
       </c>
       <c r="AE19" t="n">
-        <v>29948.0</v>
+        <v>30002.0</v>
       </c>
       <c r="AF19" t="n">
-        <v>3886.0</v>
+        <v>5372.0</v>
       </c>
       <c r="AG19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH19" t="e">
         <v>#N/A</v>
@@ -4522,97 +4561,497 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AL19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AM19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AN19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AO19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AP19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AQ19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.0220622E7</v>
+        <v>2.0220407E7</v>
       </c>
       <c r="AS19" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="AT19" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU19" t="n">
-        <v>10000.0</v>
+        <v>17131.0</v>
       </c>
       <c r="AV19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AW19" t="n">
-        <v>40000.0</v>
+        <v>57147.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.0E8</v>
+        <v>9.78985257E8</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.1367</v>
+        <v>0.361889640203181</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2.925739924E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA19" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="BB19" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="BC19" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="BD19" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="BF19" t="n">
-        <v>450.0</v>
+        <v>480.0</v>
       </c>
       <c r="BG19" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BH19" t="n">
         <v>30.0</v>
       </c>
       <c r="BI19" t="s">
+        <v>240</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2.0220715E7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.686871619E9</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4270.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112157.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3192.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.78908775E8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>75.6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="U20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28245.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8170.0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.0220818E7</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2.0220517E7</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6.0E8</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3.0E9</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>240</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.0220718E7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.002834824E9</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>282445.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2156.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.542002423E9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="U21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>29948.0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>3886.0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.0220818E7</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2.0220622E7</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4.0E8</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.1367</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.925739924E9</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>206</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC21" t="s">
         <v>227</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>229</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM19" t="s">
+      <c r="BD21" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI21" t="s">
         <v>240</v>
       </c>
-      <c r="BN19" t="s">
-        <v>250</v>
+      <c r="BJ21" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>253</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="278">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -284,6 +284,12 @@
     <t>STARR_075</t>
   </si>
   <si>
+    <t>STARR_077</t>
+  </si>
+  <si>
+    <t>STARR_079</t>
+  </si>
+  <si>
     <t>STARR_080</t>
   </si>
   <si>
@@ -374,6 +380,12 @@
     <t>STARR_075_combine_force18792</t>
   </si>
   <si>
+    <t>STARR_077_combine_force13098</t>
+  </si>
+  <si>
+    <t>STARR_079_combine_force13446</t>
+  </si>
+  <si>
     <t>STARR_080_force4270</t>
   </si>
   <si>
@@ -446,6 +458,12 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18792/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13098/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force13446/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force4270/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -518,6 +536,12 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18792/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13098/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force13446/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force4270/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -629,6 +653,12 @@
     <t>SI-TT-A4</t>
   </si>
   <si>
+    <t>SI-TT-A5</t>
+  </si>
+  <si>
+    <t>SI-TT-A8</t>
+  </si>
+  <si>
     <t>SI-TT-B10</t>
   </si>
   <si>
@@ -686,6 +716,12 @@
     <t>CTCTAGCGAG</t>
   </si>
   <si>
+    <t>GTAGCCCTGT</t>
+  </si>
+  <si>
+    <t>CGAAGTATAC</t>
+  </si>
+  <si>
     <t>GCCCGATGGA</t>
   </si>
   <si>
@@ -717,6 +753,12 @@
   </si>
   <si>
     <t>GATGAAGATA</t>
+  </si>
+  <si>
+    <t>ATAGATGCTC</t>
+  </si>
+  <si>
+    <t>CTCCAAGTTC</t>
   </si>
   <si>
     <t>CTAGACGATT</t>
@@ -1074,22 +1116,22 @@
         <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H2" t="n">
         <v>17.0</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K2" t="n">
         <v>230.0</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M2" t="n">
         <v>12660.0</v>
@@ -1152,7 +1194,7 @@
         <v>2974.0</v>
       </c>
       <c r="AG2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1161,28 +1203,28 @@
         <v>2.0220802E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR2" t="n">
         <v>2.0190603E7</v>
@@ -1191,7 +1233,7 @@
         <v>72</v>
       </c>
       <c r="AT2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AU2" t="n">
         <v>10000.0</v>
@@ -1212,16 +1254,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="BB2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="BC2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE2" t="e">
         <v>#N/A</v>
@@ -1236,22 +1278,22 @@
         <v>20.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="BK2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="BL2" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="BN2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -1274,22 +1316,22 @@
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" t="n">
         <v>18.0</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" t="n">
         <v>267.0</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M3" t="n">
         <v>7398.0</v>
@@ -1352,7 +1394,7 @@
         <v>6703.0</v>
       </c>
       <c r="AG3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1361,28 +1403,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AM3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AR3" t="n">
         <v>2.0190624E7</v>
@@ -1391,7 +1433,7 @@
         <v>73</v>
       </c>
       <c r="AT3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AU3" t="n">
         <v>10000.0</v>
@@ -1412,16 +1454,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="BB3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="BC3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE3" t="e">
         <v>#N/A</v>
@@ -1436,22 +1478,22 @@
         <v>45.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="BK3" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="BL3" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="BN3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -1474,22 +1516,22 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H4" t="n">
         <v>48.0</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K4" t="n">
         <v>266.0</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M4" t="n">
         <v>9907.0</v>
@@ -1552,7 +1594,7 @@
         <v>5863.0</v>
       </c>
       <c r="AG4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1561,34 +1603,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AM4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR4" t="n">
         <v>2.0190829E7</v>
       </c>
       <c r="AS4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AT4" t="e">
         <v>#N/A</v>
@@ -1597,7 +1639,7 @@
         <v>8714.0</v>
       </c>
       <c r="AV4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AW4" t="n">
         <v>50000.0</v>
@@ -1612,16 +1654,16 @@
         <v>2.99217E9</v>
       </c>
       <c r="BA4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="BB4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="BC4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE4" t="n">
         <v>3.0</v>
@@ -1630,28 +1672,28 @@
         <v>448.0</v>
       </c>
       <c r="BG4" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH4" t="n">
         <v>50.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ4" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="BN4" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
@@ -1674,22 +1716,22 @@
         <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
         <v>70.0</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>247.0</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5" t="n">
         <v>8966.0</v>
@@ -1752,7 +1794,7 @@
         <v>3932.0</v>
       </c>
       <c r="AG5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -1761,28 +1803,28 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AM5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AR5" t="n">
         <v>2.0190909E7</v>
@@ -1797,7 +1839,7 @@
         <v>6512.0</v>
       </c>
       <c r="AV5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AW5" t="n">
         <v>25000.0</v>
@@ -1812,16 +1854,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="BB5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="BC5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE5" t="e">
         <v>#N/A</v>
@@ -1830,28 +1872,28 @@
         <v>#N/A</v>
       </c>
       <c r="BG5" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="BH5" t="n">
         <v>20.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK5" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM5" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="BN5" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
@@ -1874,16 +1916,16 @@
         <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H6" t="n">
         <v>28.0</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K6" t="n">
         <v>44.0</v>
@@ -1952,37 +1994,37 @@
         <v>3777.0</v>
       </c>
       <c r="AG6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AI6" t="e">
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AM6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AR6" t="n">
         <v>2.0190909E7</v>
@@ -1997,7 +2039,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AW6" t="n">
         <v>50000.0</v>
@@ -2012,16 +2054,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="BC6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE6" t="e">
         <v>#N/A</v>
@@ -2030,28 +2072,28 @@
         <v>510.0</v>
       </c>
       <c r="BG6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH6" t="n">
         <v>40.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="BK6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="BL6" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="BN6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
@@ -2074,22 +2116,22 @@
         <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H7" t="n">
         <v>27.0</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K7" t="n">
         <v>267.0</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" t="n">
         <v>2072.0</v>
@@ -2152,7 +2194,7 @@
         <v>4672.0</v>
       </c>
       <c r="AG7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2161,28 +2203,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AM7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AR7" t="n">
         <v>2.0190905E7</v>
@@ -2197,7 +2239,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AW7" t="n">
         <v>50000.0</v>
@@ -2212,16 +2254,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="BC7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE7" t="e">
         <v>#N/A</v>
@@ -2230,28 +2272,28 @@
         <v>504.0</v>
       </c>
       <c r="BG7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH7" t="n">
         <v>40.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="BK7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="BL7" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="BN7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -2274,22 +2316,22 @@
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" t="n">
         <v>30.0</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K8" t="n">
         <v>268.0</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>3767.0</v>
@@ -2352,7 +2394,7 @@
         <v>2687.0</v>
       </c>
       <c r="AG8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
@@ -2361,28 +2403,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AM8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AR8" t="n">
         <v>2.0191018E7</v>
@@ -2397,7 +2439,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AW8" t="n">
         <v>50001.0</v>
@@ -2412,16 +2454,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="BB8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="BC8" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD8" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE8" t="e">
         <v>#N/A</v>
@@ -2430,28 +2472,28 @@
         <v>406.0</v>
       </c>
       <c r="BG8" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH8" t="n">
         <v>40.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ8" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="BK8" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="BL8" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM8" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="BN8" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
@@ -2474,22 +2516,22 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H9" t="n">
         <v>34.0</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K9" t="n">
         <v>92.0</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>2000.0</v>
@@ -2552,7 +2594,7 @@
         <v>2616.0</v>
       </c>
       <c r="AG9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="e">
         <v>#N/A</v>
@@ -2561,28 +2603,28 @@
         <v>2.0211103E7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AM9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AR9" t="n">
         <v>2.0200211E7</v>
@@ -2591,13 +2633,13 @@
         <v>79</v>
       </c>
       <c r="AT9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AU9" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AW9" t="n">
         <v>75000.0</v>
@@ -2612,16 +2654,16 @@
         <v>3.0E9</v>
       </c>
       <c r="BA9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="BB9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="BC9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE9" t="n">
         <v>2.03</v>
@@ -2630,19 +2672,19 @@
         <v>328.0</v>
       </c>
       <c r="BG9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="BH9" t="n">
         <v>50.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ9" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK9" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL9" t="e">
         <v>#N/A</v>
@@ -2651,7 +2693,7 @@
         <v>#N/A</v>
       </c>
       <c r="BN9" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -2674,22 +2716,22 @@
         <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" t="n">
         <v>71.0</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>156.0</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>15847.0</v>
@@ -2752,7 +2794,7 @@
         <v>3038.0</v>
       </c>
       <c r="AG10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
@@ -2761,28 +2803,28 @@
         <v>2.0220624E7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AM10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AR10" t="n">
         <v>2.0190923E7</v>
@@ -2791,13 +2833,13 @@
         <v>80</v>
       </c>
       <c r="AT10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AU10" t="n">
         <v>12710.0</v>
       </c>
       <c r="AV10" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AW10" t="n">
         <v>35000.0</v>
@@ -2812,16 +2854,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="BB10" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="BC10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE10" t="e">
         <v>#N/A</v>
@@ -2830,28 +2872,28 @@
         <v>#N/A</v>
       </c>
       <c r="BG10" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="BH10" t="n">
         <v>20.0</v>
       </c>
       <c r="BI10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ10" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK10" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL10" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM10" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="BN10" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11">
@@ -2874,22 +2916,22 @@
         <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" t="n">
         <v>72.0</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>269.0</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>9146.0</v>
@@ -2952,7 +2994,7 @@
         <v>5029.0</v>
       </c>
       <c r="AG11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
@@ -2961,28 +3003,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AM11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AR11" t="n">
         <v>2.0201119E7</v>
@@ -2991,13 +3033,13 @@
         <v>81</v>
       </c>
       <c r="AT11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AU11" t="n">
         <v>9886.0</v>
       </c>
       <c r="AV11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AW11" t="n">
         <v>25000.0</v>
@@ -3012,16 +3054,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="BB11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="BC11" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD11" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE11" t="e">
         <v>#N/A</v>
@@ -3030,28 +3072,28 @@
         <v>#N/A</v>
       </c>
       <c r="BG11" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="BH11" t="n">
         <v>20.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK11" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM11" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="BN11" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -3074,22 +3116,22 @@
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" t="n">
         <v>59.0</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K12" t="n">
         <v>270.0</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>8300.0</v>
@@ -3152,7 +3194,7 @@
         <v>10919.0</v>
       </c>
       <c r="AG12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
@@ -3161,34 +3203,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AM12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AR12" t="n">
         <v>2.0210409E7</v>
       </c>
       <c r="AS12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AT12" t="e">
         <v>#N/A</v>
@@ -3197,7 +3239,7 @@
         <v>8464.0</v>
       </c>
       <c r="AV12" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AW12" t="n">
         <v>35280.0</v>
@@ -3212,16 +3254,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA12" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="BB12" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="BC12" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BD12" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="BE12" t="n">
         <v>3.26</v>
@@ -3230,28 +3272,28 @@
         <v>494.0</v>
       </c>
       <c r="BG12" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH12" t="n">
         <v>25.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ12" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK12" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL12" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM12" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="BN12" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13">
@@ -3274,22 +3316,22 @@
         <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" t="n">
         <v>73.0</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>271.0</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
         <v>5793.0</v>
@@ -3352,7 +3394,7 @@
         <v>5646.0</v>
       </c>
       <c r="AG13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="e">
         <v>#N/A</v>
@@ -3361,34 +3403,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AM13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AR13" t="n">
         <v>2.0211028E7</v>
       </c>
       <c r="AS13" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AT13" t="e">
         <v>#N/A</v>
@@ -3397,7 +3439,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AW13" t="n">
         <v>70000.0</v>
@@ -3412,16 +3454,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BB13" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="BC13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BD13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="BE13" t="n">
         <v>5.24</v>
@@ -3430,28 +3472,28 @@
         <v>454.0</v>
       </c>
       <c r="BG13" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="BH13" t="n">
         <v>20.0</v>
       </c>
       <c r="BI13" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ13" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK13" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL13" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM13" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="BN13" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
@@ -3474,22 +3516,22 @@
         <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H14" t="n">
         <v>115.0</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K14" t="n">
         <v>272.0</v>
       </c>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" t="n">
         <v>9464.0</v>
@@ -3552,7 +3594,7 @@
         <v>7757.0</v>
       </c>
       <c r="AG14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
@@ -3561,28 +3603,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AM14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AR14" t="n">
         <v>2.0211111E7</v>
@@ -3597,7 +3639,7 @@
         <v>13939.0</v>
       </c>
       <c r="AV14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AW14" t="n">
         <v>47723.0</v>
@@ -3612,16 +3654,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="BB14" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="BC14" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD14" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="BE14" t="n">
         <v>3.27</v>
@@ -3630,28 +3672,28 @@
         <v>470.0</v>
       </c>
       <c r="BG14" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH14" t="n">
         <v>30.0</v>
       </c>
       <c r="BI14" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ14" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK14" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL14" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM14" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="BN14" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15">
@@ -3674,22 +3716,22 @@
         <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15" t="n">
         <v>113.0</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" t="n">
         <v>273.0</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M15" t="n">
         <v>7508.0</v>
@@ -3752,7 +3794,7 @@
         <v>7878.0</v>
       </c>
       <c r="AG15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
@@ -3761,28 +3803,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AR15" t="n">
         <v>2.021121E7</v>
@@ -3797,7 +3839,7 @@
         <v>9511.0</v>
       </c>
       <c r="AV15" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AW15" t="n">
         <v>39816.0</v>
@@ -3812,16 +3854,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA15" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BB15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="BC15" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD15" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="BE15" t="n">
         <v>3.27</v>
@@ -3830,28 +3872,28 @@
         <v>470.0</v>
       </c>
       <c r="BG15" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH15" t="n">
         <v>30.0</v>
       </c>
       <c r="BI15" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ15" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK15" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL15" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM15" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="BN15" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16">
@@ -3874,22 +3916,22 @@
         <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" t="n">
         <v>114.0</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K16" t="n">
         <v>274.0</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M16" t="n">
         <v>8196.0</v>
@@ -3952,7 +3994,7 @@
         <v>6762.0</v>
       </c>
       <c r="AG16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
@@ -3961,28 +4003,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN16" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AR16" t="n">
         <v>2.0220311E7</v>
@@ -3997,7 +4039,7 @@
         <v>8650.0</v>
       </c>
       <c r="AV16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AW16" t="n">
         <v>13418.0</v>
@@ -4012,16 +4054,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA16" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="BB16" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="BC16" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD16" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="BE16" t="n">
         <v>3.27</v>
@@ -4030,28 +4072,28 @@
         <v>470.0</v>
       </c>
       <c r="BG16" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH16" t="n">
         <v>30.0</v>
       </c>
       <c r="BI16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ16" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK16" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL16" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM16" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="BN16" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
@@ -4074,22 +4116,22 @@
         <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
         <v>119.0</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" t="n">
         <v>275.0</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" t="n">
         <v>11261.0</v>
@@ -4152,7 +4194,7 @@
         <v>9346.0</v>
       </c>
       <c r="AG17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
@@ -4161,28 +4203,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AM17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN17" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP17" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AR17" t="n">
         <v>2.0220304E7</v>
@@ -4197,7 +4239,7 @@
         <v>13279.0</v>
       </c>
       <c r="AV17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AW17" t="n">
         <v>45518.0</v>
@@ -4212,16 +4254,16 @@
         <v>2.705203875E9</v>
       </c>
       <c r="BA17" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="BB17" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="BC17" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD17" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="BE17" t="n">
         <v>3.23</v>
@@ -4230,28 +4272,28 @@
         <v>480.0</v>
       </c>
       <c r="BG17" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH17" t="n">
         <v>30.0</v>
       </c>
       <c r="BI17" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ17" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK17" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL17" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM17" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="BN17" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -4274,22 +4316,22 @@
         <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" t="n">
         <v>116.0</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K18" t="n">
         <v>254.0</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" t="n">
         <v>13147.0</v>
@@ -4352,7 +4394,7 @@
         <v>5861.0</v>
       </c>
       <c r="AG18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="e">
         <v>#N/A</v>
@@ -4361,28 +4403,28 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AM18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP18" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AR18" t="n">
         <v>2.0220325E7</v>
@@ -4397,7 +4439,7 @@
         <v>12639.0</v>
       </c>
       <c r="AV18" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AW18" t="n">
         <v>25339.0</v>
@@ -4412,16 +4454,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA18" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="BB18" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="BC18" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD18" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="BE18" t="n">
         <v>3.27</v>
@@ -4430,28 +4472,28 @@
         <v>470.0</v>
       </c>
       <c r="BG18" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH18" t="n">
         <v>30.0</v>
       </c>
       <c r="BI18" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ18" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK18" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL18" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM18" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="BN18" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19">
@@ -4474,22 +4516,22 @@
         <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" t="n">
         <v>121.0</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" t="n">
         <v>276.0</v>
       </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M19" t="n">
         <v>18792.0</v>
@@ -4552,7 +4594,7 @@
         <v>5372.0</v>
       </c>
       <c r="AG19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH19" t="e">
         <v>#N/A</v>
@@ -4561,28 +4603,28 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AM19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AR19" t="n">
         <v>2.0220407E7</v>
@@ -4597,7 +4639,7 @@
         <v>17131.0</v>
       </c>
       <c r="AV19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AW19" t="n">
         <v>57147.0</v>
@@ -4612,16 +4654,16 @@
         <v>2.705203875E9</v>
       </c>
       <c r="BA19" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="BB19" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="BC19" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD19" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="BE19" t="n">
         <v>3.23</v>
@@ -4630,39 +4672,39 @@
         <v>480.0</v>
       </c>
       <c r="BG19" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH19" t="n">
         <v>30.0</v>
       </c>
       <c r="BI19" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ19" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK19" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL19" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM19" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="BN19" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.0220715E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>2.686871619E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -4674,85 +4716,85 @@
         <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" t="n">
-        <v>99.0</v>
+        <v>117.0</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" t="n">
-        <v>279.0</v>
+        <v>277.0</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" t="n">
-        <v>4270.0</v>
+        <v>13098.0</v>
       </c>
       <c r="N20" t="n">
-        <v>112157.0</v>
+        <v>101378.0</v>
       </c>
       <c r="O20" t="n">
-        <v>3192.0</v>
+        <v>3172.0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.78908775E8</v>
+        <v>1.327847231E9</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="R20" t="n">
-        <v>75.6</v>
+        <v>77.2</v>
       </c>
       <c r="S20" t="n">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="T20" t="n">
-        <v>94.7</v>
+        <v>93.3</v>
       </c>
       <c r="U20" t="e">
         <v>#N/A</v>
       </c>
       <c r="V20" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="W20" t="n">
-        <v>95.5</v>
+        <v>96.0</v>
       </c>
       <c r="X20" t="n">
-        <v>88.2</v>
+        <v>90.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.8</v>
+        <v>8.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>57.3</v>
+        <v>58.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>63.8</v>
+        <v>62.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.9</v>
+        <v>17.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>72.2</v>
+        <v>82.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>28245.0</v>
+        <v>30019.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>8170.0</v>
+        <v>7684.0</v>
       </c>
       <c r="AG20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="e">
         <v>#N/A</v>
@@ -4761,31 +4803,31 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AM20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AR20" t="n">
-        <v>2.0220517E7</v>
+        <v>2.0220428E7</v>
       </c>
       <c r="AS20" t="s">
         <v>90</v>
@@ -4794,75 +4836,75 @@
         <v>#N/A</v>
       </c>
       <c r="AU20" t="n">
-        <v>10000.0</v>
+        <v>12248.0</v>
       </c>
       <c r="AV20" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AW20" t="n">
-        <v>60000.0</v>
+        <v>40941.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>6.0E8</v>
+        <v>5.01445368E8</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.2</v>
+        <v>0.189797898148025</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3.0E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA20" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="BB20" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="BC20" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="BD20" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.02</v>
+        <v>3.27</v>
       </c>
       <c r="BF20" t="n">
-        <v>520.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG20" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH20" t="n">
         <v>30.0</v>
       </c>
       <c r="BI20" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ20" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL20" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM20" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="BN20" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.0220718E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>3.002834824E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D21" t="e">
         <v>#N/A</v>
@@ -4874,85 +4916,85 @@
         <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0</v>
+        <v>118.0</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" t="n">
-        <v>280.0</v>
+        <v>278.0</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M21" t="n">
-        <v>9000.0</v>
+        <v>13446.0</v>
       </c>
       <c r="N21" t="n">
-        <v>282445.0</v>
+        <v>99434.0</v>
       </c>
       <c r="O21" t="n">
-        <v>2156.0</v>
+        <v>2869.0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.542002423E9</v>
+        <v>1.336986912E9</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.8</v>
+        <v>97.9</v>
       </c>
       <c r="R21" t="n">
-        <v>87.9</v>
+        <v>77.0</v>
       </c>
       <c r="S21" t="n">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="T21" t="n">
-        <v>93.0</v>
+        <v>93.4</v>
       </c>
       <c r="U21" t="e">
         <v>#N/A</v>
       </c>
       <c r="V21" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="W21" t="n">
-        <v>95.6</v>
+        <v>96.0</v>
       </c>
       <c r="X21" t="n">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>61.5</v>
+        <v>59.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>21.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>46.3</v>
+        <v>61.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>33.5</v>
+        <v>18.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>83.2</v>
+        <v>84.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>29948.0</v>
+        <v>29708.0</v>
       </c>
       <c r="AF21" t="n">
-        <v>3886.0</v>
+        <v>7021.0</v>
       </c>
       <c r="AG21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="e">
         <v>#N/A</v>
@@ -4961,97 +5003,497 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AM21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AN21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AO21" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AP21" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.0220622E7</v>
+        <v>2.0220505E7</v>
       </c>
       <c r="AS21" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="AT21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU21" t="n">
-        <v>10000.0</v>
+        <v>13151.0</v>
       </c>
       <c r="AV21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AW21" t="n">
-        <v>40000.0</v>
+        <v>50211.0</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.0E8</v>
+        <v>6.60324861E8</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.1367</v>
+        <v>0.249934048074977</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2.925739924E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA21" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="BB21" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="BC21" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="BD21" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="BE21" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="BF21" t="n">
-        <v>450.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG21" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="BH21" t="n">
         <v>30.0</v>
       </c>
       <c r="BI21" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="BJ21" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="BK21" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BL21" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="BM21" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="BN21" t="s">
-        <v>263</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.0220715E7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.686871619E9</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4270.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>112157.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3192.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.78908775E8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>75.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="U22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>28245.0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8170.0</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.0220818E7</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>2.0220517E7</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6.0E8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3.0E9</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>254</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>258</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>266</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.0220718E7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.002834824E9</v>
+      </c>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>282445.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2156.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.542002423E9</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="U23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>29948.0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3886.0</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.0220818E7</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>2.0220622E7</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.0E8</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.1367</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2.925739924E9</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>254</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>258</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
@@ -356,7 +356,7 @@
     <t>STARR_043_combine_force9146</t>
   </si>
   <si>
-    <t>STARR_049_combine_force8498</t>
+    <t>STARR_049_combine_force8535</t>
   </si>
   <si>
     <t>STARR_059_force5793</t>
@@ -380,7 +380,7 @@
     <t>STARR_075_combine_force18792</t>
   </si>
   <si>
-    <t>STARR_077_combine_force13098</t>
+    <t>STARR_077_combine_force13134</t>
   </si>
   <si>
     <t>STARR_079_combine_force13446</t>
@@ -434,7 +434,7 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force9146/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8498/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8535/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5793/outs/molecule_info.h5</t>
@@ -458,7 +458,7 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18792/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13098/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13134/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force13446/outs/molecule_info.h5</t>
@@ -512,7 +512,7 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force9146/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8498/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8535/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5793/outs/metrics_summary.csv</t>
@@ -536,7 +536,7 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18792/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13098/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13134/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force13446/outs/metrics_summary.csv</t>
@@ -3128,19 +3128,19 @@
         <v>103</v>
       </c>
       <c r="K12" t="n">
-        <v>270.0</v>
+        <v>289.0</v>
       </c>
       <c r="L12" t="s">
         <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>8300.0</v>
+        <v>8535.0</v>
       </c>
       <c r="N12" t="n">
-        <v>93136.0</v>
+        <v>90572.0</v>
       </c>
       <c r="O12" t="n">
-        <v>3683.0</v>
+        <v>3594.0</v>
       </c>
       <c r="P12" t="n">
         <v>7.7302905E8</v>
@@ -3185,13 +3185,13 @@
         <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>79.4</v>
+        <v>79.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>28464.0</v>
+        <v>28473.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>10919.0</v>
+        <v>10436.0</v>
       </c>
       <c r="AG12" t="s">
         <v>126</v>
@@ -3200,7 +3200,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ12" t="s">
         <v>128</v>
@@ -4728,19 +4728,19 @@
         <v>104</v>
       </c>
       <c r="K20" t="n">
-        <v>277.0</v>
+        <v>290.0</v>
       </c>
       <c r="L20" t="s">
         <v>122</v>
       </c>
       <c r="M20" t="n">
-        <v>13098.0</v>
+        <v>13134.0</v>
       </c>
       <c r="N20" t="n">
-        <v>101378.0</v>
+        <v>101100.0</v>
       </c>
       <c r="O20" t="n">
-        <v>3172.0</v>
+        <v>3168.0</v>
       </c>
       <c r="P20" t="n">
         <v>1.327847231E9</v>
@@ -4791,7 +4791,7 @@
         <v>30019.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>7684.0</v>
+        <v>7667.0</v>
       </c>
       <c r="AG20" t="s">
         <v>126</v>
@@ -4800,7 +4800,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ20" t="s">
         <v>128</v>

--- a/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="279">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -212,6 +212,9 @@
     <t>FastqFolder</t>
   </si>
   <si>
+    <t>Agg.List</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -344,10 +347,10 @@
     <t>STARR_031_force2072</t>
   </si>
   <si>
-    <t>STARR_032_force3767</t>
-  </si>
-  <si>
-    <t>STARR_039_force2000</t>
+    <t>STARR_032_force2000</t>
+  </si>
+  <si>
+    <t>STARR_039_force1500</t>
   </si>
   <si>
     <t>STARR_041_combine3</t>
@@ -422,10 +425,10 @@
     <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/molecule_info.h5</t>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/molecule_info.h5</t>
@@ -500,10 +503,10 @@
     <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</t>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/metrics_summary.csv</t>
@@ -1095,13 +1098,16 @@
       <c r="BN1" t="s">
         <v>65</v>
       </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2.0190912E7</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>3.157220343E9</v>
@@ -1113,25 +1119,25 @@
         <v>#N/A</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
         <v>17.0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="n">
         <v>230.0</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="n">
         <v>12660.0</v>
@@ -1194,7 +1200,7 @@
         <v>2974.0</v>
       </c>
       <c r="AG2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1203,37 +1209,37 @@
         <v>2.0220802E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AR2" t="n">
         <v>2.0190603E7</v>
       </c>
       <c r="AS2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU2" t="n">
         <v>10000.0</v>
@@ -1254,16 +1260,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BB2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BC2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE2" t="e">
         <v>#N/A</v>
@@ -1278,22 +1284,25 @@
         <v>20.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BL2" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BN2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1301,7 +1310,7 @@
         <v>2.0190912E7</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
         <v>3.157220343E9</v>
@@ -1313,25 +1322,25 @@
         <v>#N/A</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
         <v>18.0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="n">
         <v>267.0</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" t="n">
         <v>7398.0</v>
@@ -1394,7 +1403,7 @@
         <v>6703.0</v>
       </c>
       <c r="AG3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1403,37 +1412,37 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AR3" t="n">
         <v>2.0190624E7</v>
       </c>
       <c r="AS3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AU3" t="n">
         <v>10000.0</v>
@@ -1454,16 +1463,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BB3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BC3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE3" t="e">
         <v>#N/A</v>
@@ -1478,22 +1487,25 @@
         <v>45.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BL3" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BN3" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1501,7 +1513,7 @@
         <v>2.0210716E7</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="n">
         <v>2.81954025E9</v>
@@ -1513,25 +1525,25 @@
         <v>#N/A</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" t="n">
         <v>48.0</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>266.0</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" t="n">
         <v>9907.0</v>
@@ -1594,7 +1606,7 @@
         <v>5863.0</v>
       </c>
       <c r="AG4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1603,34 +1615,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AR4" t="n">
         <v>2.0190829E7</v>
       </c>
       <c r="AS4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AT4" t="e">
         <v>#N/A</v>
@@ -1639,7 +1651,7 @@
         <v>8714.0</v>
       </c>
       <c r="AV4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AW4" t="n">
         <v>50000.0</v>
@@ -1654,16 +1666,16 @@
         <v>2.99217E9</v>
       </c>
       <c r="BA4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BB4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BC4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE4" t="n">
         <v>3.0</v>
@@ -1672,28 +1684,31 @@
         <v>448.0</v>
       </c>
       <c r="BG4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH4" t="n">
         <v>50.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BN4" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1701,7 +1716,7 @@
         <v>2.0220616E7</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
         <v>2.901329438E9</v>
@@ -1713,25 +1728,25 @@
         <v>#N/A</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
         <v>70.0</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" t="n">
         <v>247.0</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="n">
         <v>8966.0</v>
@@ -1794,7 +1809,7 @@
         <v>3932.0</v>
       </c>
       <c r="AG5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -1803,34 +1818,34 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AR5" t="n">
         <v>2.0190909E7</v>
       </c>
       <c r="AS5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT5" t="e">
         <v>#N/A</v>
@@ -1839,7 +1854,7 @@
         <v>6512.0</v>
       </c>
       <c r="AV5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW5" t="n">
         <v>25000.0</v>
@@ -1854,16 +1869,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BC5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE5" t="e">
         <v>#N/A</v>
@@ -1872,28 +1887,31 @@
         <v>#N/A</v>
       </c>
       <c r="BG5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BH5" t="n">
         <v>20.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BN5" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1901,7 +1919,7 @@
         <v>2.0191121E7</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="n">
         <v>2.529556633E9</v>
@@ -1913,25 +1931,25 @@
         <v>2.2</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" t="n">
         <v>28.0</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="n">
         <v>44.0</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>2288.0</v>
@@ -1994,43 +2012,43 @@
         <v>3777.0</v>
       </c>
       <c r="AG6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI6" t="e">
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR6" t="n">
         <v>2.0190909E7</v>
       </c>
       <c r="AS6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AT6" t="e">
         <v>#N/A</v>
@@ -2039,7 +2057,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW6" t="n">
         <v>50000.0</v>
@@ -2054,16 +2072,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BC6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE6" t="e">
         <v>#N/A</v>
@@ -2072,28 +2090,31 @@
         <v>510.0</v>
       </c>
       <c r="BG6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH6" t="n">
         <v>40.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BL6" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BN6" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -2101,7 +2122,7 @@
         <v>2.0191121E7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
         <v>2.529556633E9</v>
@@ -2113,25 +2134,25 @@
         <v>#N/A</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" t="n">
         <v>27.0</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" t="n">
         <v>267.0</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" t="n">
         <v>2072.0</v>
@@ -2194,7 +2215,7 @@
         <v>4672.0</v>
       </c>
       <c r="AG7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2203,34 +2224,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AR7" t="n">
         <v>2.0190905E7</v>
       </c>
       <c r="AS7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT7" t="e">
         <v>#N/A</v>
@@ -2239,7 +2260,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW7" t="n">
         <v>50000.0</v>
@@ -2254,16 +2275,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BB7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE7" t="e">
         <v>#N/A</v>
@@ -2272,28 +2293,31 @@
         <v>504.0</v>
       </c>
       <c r="BG7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH7" t="n">
         <v>40.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BL7" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BN7" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -2301,7 +2325,7 @@
         <v>2.0191121E7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
         <v>2.529556633E9</v>
@@ -2313,34 +2337,34 @@
         <v>#N/A</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" t="n">
         <v>30.0</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="n">
-        <v>268.0</v>
+        <v>97.0</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
-        <v>3767.0</v>
+        <v>2000.0</v>
       </c>
       <c r="N8" t="n">
-        <v>117996.0</v>
+        <v>222245.0</v>
       </c>
       <c r="O8" t="n">
-        <v>1515.0</v>
+        <v>2010.0</v>
       </c>
       <c r="P8" t="n">
         <v>4.44489382E8</v>
@@ -2361,76 +2385,76 @@
         <v>#N/A</v>
       </c>
       <c r="V8" t="n">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="W8" t="n">
         <v>90.8</v>
       </c>
       <c r="X8" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="Y8" t="n">
         <v>7.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="AA8" t="n">
         <v>16.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.0</v>
+        <v>67.1</v>
       </c>
       <c r="AC8" t="n">
         <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>64.4</v>
+        <v>51.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>24483.0</v>
+        <v>23813.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>2687.0</v>
+        <v>4002.0</v>
       </c>
       <c r="AG8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0211108E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AR8" t="n">
         <v>2.0191018E7</v>
       </c>
       <c r="AS8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT8" t="e">
         <v>#N/A</v>
@@ -2439,7 +2463,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW8" t="n">
         <v>50001.0</v>
@@ -2454,16 +2478,16 @@
         <v>2.50001E9</v>
       </c>
       <c r="BA8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BB8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE8" t="e">
         <v>#N/A</v>
@@ -2472,28 +2496,31 @@
         <v>406.0</v>
       </c>
       <c r="BG8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH8" t="n">
         <v>40.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BL8" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BN8" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -2501,7 +2528,7 @@
         <v>2.0210126E7</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
         <v>3.028254122E9</v>
@@ -2513,34 +2540,34 @@
         <v>#N/A</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9" t="n">
         <v>34.0</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="n">
-        <v>92.0</v>
+        <v>99.0</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="N9" t="n">
-        <v>359483.0</v>
+        <v>479310.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1551.0</v>
+        <v>1818.0</v>
       </c>
       <c r="P9" t="n">
         <v>7.18965036E8</v>
@@ -2585,16 +2612,16 @@
         <v>4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>52.9</v>
+        <v>49.8</v>
       </c>
       <c r="AE9" t="n">
-        <v>24674.0</v>
+        <v>24419.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>2616.0</v>
+        <v>3237.0</v>
       </c>
       <c r="AG9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH9" t="e">
         <v>#N/A</v>
@@ -2603,43 +2630,43 @@
         <v>2.0211103E7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AR9" t="n">
         <v>2.0200211E7</v>
       </c>
       <c r="AS9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AU9" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW9" t="n">
         <v>75000.0</v>
@@ -2654,16 +2681,16 @@
         <v>3.0E9</v>
       </c>
       <c r="BA9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BB9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BC9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE9" t="n">
         <v>2.03</v>
@@ -2672,19 +2699,19 @@
         <v>328.0</v>
       </c>
       <c r="BG9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BH9" t="n">
         <v>50.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL9" t="e">
         <v>#N/A</v>
@@ -2693,7 +2720,10 @@
         <v>#N/A</v>
       </c>
       <c r="BN9" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -2701,7 +2731,7 @@
         <v>2.0220616E7</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="n">
         <v>2.901329438E9</v>
@@ -2713,25 +2743,25 @@
         <v>#N/A</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" t="n">
         <v>71.0</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="n">
         <v>156.0</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>15847.0</v>
@@ -2794,7 +2824,7 @@
         <v>3038.0</v>
       </c>
       <c r="AG10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
@@ -2803,43 +2833,43 @@
         <v>2.0220624E7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR10" t="n">
         <v>2.0190923E7</v>
       </c>
       <c r="AS10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AU10" t="n">
         <v>12710.0</v>
       </c>
       <c r="AV10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW10" t="n">
         <v>35000.0</v>
@@ -2854,16 +2884,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BB10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BC10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE10" t="e">
         <v>#N/A</v>
@@ -2872,28 +2902,31 @@
         <v>#N/A</v>
       </c>
       <c r="BG10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BH10" t="n">
         <v>20.0</v>
       </c>
       <c r="BI10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BN10" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -2901,7 +2934,7 @@
         <v>2.0220616E7</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
         <v>2.901329438E9</v>
@@ -2913,25 +2946,25 @@
         <v>#N/A</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
         <v>72.0</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" t="n">
         <v>269.0</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>9146.0</v>
@@ -2994,7 +3027,7 @@
         <v>5029.0</v>
       </c>
       <c r="AG11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
@@ -3003,43 +3036,43 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AR11" t="n">
         <v>2.0201119E7</v>
       </c>
       <c r="AS11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AT11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AU11" t="n">
         <v>9886.0</v>
       </c>
       <c r="AV11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW11" t="n">
         <v>25000.0</v>
@@ -3054,16 +3087,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BB11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BC11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE11" t="e">
         <v>#N/A</v>
@@ -3072,28 +3105,31 @@
         <v>#N/A</v>
       </c>
       <c r="BG11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BH11" t="n">
         <v>20.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BN11" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
@@ -3101,7 +3137,7 @@
         <v>2.0211105E7</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
         <v>2.590729371E9</v>
@@ -3113,25 +3149,25 @@
         <v>#N/A</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" t="n">
         <v>59.0</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12" t="n">
         <v>289.0</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>8535.0</v>
@@ -3194,7 +3230,7 @@
         <v>10436.0</v>
       </c>
       <c r="AG12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
@@ -3203,34 +3239,34 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AR12" t="n">
         <v>2.0210409E7</v>
       </c>
       <c r="AS12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AT12" t="e">
         <v>#N/A</v>
@@ -3239,7 +3275,7 @@
         <v>8464.0</v>
       </c>
       <c r="AV12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AW12" t="n">
         <v>35280.0</v>
@@ -3254,16 +3290,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BC12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BD12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE12" t="n">
         <v>3.26</v>
@@ -3272,28 +3308,31 @@
         <v>494.0</v>
       </c>
       <c r="BG12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH12" t="n">
         <v>25.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BN12" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
@@ -3301,7 +3340,7 @@
         <v>2.0220616E7</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
         <v>2.901329438E9</v>
@@ -3313,25 +3352,25 @@
         <v>#N/A</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" t="n">
         <v>73.0</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" t="n">
         <v>271.0</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
         <v>5793.0</v>
@@ -3394,7 +3433,7 @@
         <v>5646.0</v>
       </c>
       <c r="AG13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH13" t="e">
         <v>#N/A</v>
@@ -3403,34 +3442,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AR13" t="n">
         <v>2.0211028E7</v>
       </c>
       <c r="AS13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AT13" t="e">
         <v>#N/A</v>
@@ -3439,7 +3478,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW13" t="n">
         <v>70000.0</v>
@@ -3454,16 +3493,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BB13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BC13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BD13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BE13" t="n">
         <v>5.24</v>
@@ -3472,28 +3511,31 @@
         <v>454.0</v>
       </c>
       <c r="BG13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BH13" t="n">
         <v>20.0</v>
       </c>
       <c r="BI13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BN13" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
@@ -3501,7 +3543,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="n">
         <v>3.022916505E9</v>
@@ -3513,25 +3555,25 @@
         <v>#N/A</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" t="n">
         <v>115.0</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14" t="n">
         <v>272.0</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" t="n">
         <v>9464.0</v>
@@ -3594,7 +3636,7 @@
         <v>7757.0</v>
       </c>
       <c r="AG14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
@@ -3603,34 +3645,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AR14" t="n">
         <v>2.0211111E7</v>
       </c>
       <c r="AS14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT14" t="e">
         <v>#N/A</v>
@@ -3639,7 +3681,7 @@
         <v>13939.0</v>
       </c>
       <c r="AV14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW14" t="n">
         <v>47723.0</v>
@@ -3654,16 +3696,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BB14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BC14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BE14" t="n">
         <v>3.27</v>
@@ -3672,28 +3714,31 @@
         <v>470.0</v>
       </c>
       <c r="BG14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH14" t="n">
         <v>30.0</v>
       </c>
       <c r="BI14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN14" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -3701,7 +3746,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="n">
         <v>3.022916505E9</v>
@@ -3713,25 +3758,25 @@
         <v>#N/A</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" t="n">
         <v>113.0</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" t="n">
         <v>273.0</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M15" t="n">
         <v>7508.0</v>
@@ -3794,7 +3839,7 @@
         <v>7878.0</v>
       </c>
       <c r="AG15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
@@ -3803,34 +3848,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AR15" t="n">
         <v>2.021121E7</v>
       </c>
       <c r="AS15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT15" t="e">
         <v>#N/A</v>
@@ -3839,7 +3884,7 @@
         <v>9511.0</v>
       </c>
       <c r="AV15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW15" t="n">
         <v>39816.0</v>
@@ -3854,16 +3899,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BB15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BC15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BE15" t="n">
         <v>3.27</v>
@@ -3872,28 +3917,31 @@
         <v>470.0</v>
       </c>
       <c r="BG15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH15" t="n">
         <v>30.0</v>
       </c>
       <c r="BI15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN15" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="16">
@@ -3901,7 +3949,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
         <v>3.022916505E9</v>
@@ -3913,25 +3961,25 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" t="n">
         <v>114.0</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" t="n">
         <v>274.0</v>
       </c>
       <c r="L16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M16" t="n">
         <v>8196.0</v>
@@ -3994,7 +4042,7 @@
         <v>6762.0</v>
       </c>
       <c r="AG16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
@@ -4003,34 +4051,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AR16" t="n">
         <v>2.0220311E7</v>
       </c>
       <c r="AS16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT16" t="e">
         <v>#N/A</v>
@@ -4039,7 +4087,7 @@
         <v>8650.0</v>
       </c>
       <c r="AV16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW16" t="n">
         <v>13418.0</v>
@@ -4054,16 +4102,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BB16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BC16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BE16" t="n">
         <v>3.27</v>
@@ -4072,28 +4120,31 @@
         <v>470.0</v>
       </c>
       <c r="BG16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH16" t="n">
         <v>30.0</v>
       </c>
       <c r="BI16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN16" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -4101,7 +4152,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="n">
         <v>3.069499968E9</v>
@@ -4113,25 +4164,25 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" t="n">
         <v>119.0</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="n">
         <v>275.0</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" t="n">
         <v>11261.0</v>
@@ -4194,7 +4245,7 @@
         <v>9346.0</v>
       </c>
       <c r="AG17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
@@ -4203,34 +4254,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AR17" t="n">
         <v>2.0220304E7</v>
       </c>
       <c r="AS17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT17" t="e">
         <v>#N/A</v>
@@ -4239,7 +4290,7 @@
         <v>13279.0</v>
       </c>
       <c r="AV17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AW17" t="n">
         <v>45518.0</v>
@@ -4254,16 +4305,16 @@
         <v>2.705203875E9</v>
       </c>
       <c r="BA17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BB17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BC17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BE17" t="n">
         <v>3.23</v>
@@ -4272,28 +4323,31 @@
         <v>480.0</v>
       </c>
       <c r="BG17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH17" t="n">
         <v>30.0</v>
       </c>
       <c r="BI17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN17" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
@@ -4301,7 +4355,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
         <v>3.022916505E9</v>
@@ -4313,25 +4367,25 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" t="n">
         <v>116.0</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" t="n">
         <v>254.0</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" t="n">
         <v>13147.0</v>
@@ -4394,7 +4448,7 @@
         <v>5861.0</v>
       </c>
       <c r="AG18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH18" t="e">
         <v>#N/A</v>
@@ -4403,34 +4457,34 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AR18" t="n">
         <v>2.0220325E7</v>
       </c>
       <c r="AS18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT18" t="e">
         <v>#N/A</v>
@@ -4439,7 +4493,7 @@
         <v>12639.0</v>
       </c>
       <c r="AV18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW18" t="n">
         <v>25339.0</v>
@@ -4454,16 +4508,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BB18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BC18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BE18" t="n">
         <v>3.27</v>
@@ -4472,28 +4526,31 @@
         <v>470.0</v>
       </c>
       <c r="BG18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH18" t="n">
         <v>30.0</v>
       </c>
       <c r="BI18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN18" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
@@ -4501,7 +4558,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
         <v>3.069499968E9</v>
@@ -4513,25 +4570,25 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" t="n">
         <v>121.0</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" t="n">
         <v>276.0</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" t="n">
         <v>18792.0</v>
@@ -4594,7 +4651,7 @@
         <v>5372.0</v>
       </c>
       <c r="AG19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH19" t="e">
         <v>#N/A</v>
@@ -4603,34 +4660,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AR19" t="n">
         <v>2.0220407E7</v>
       </c>
       <c r="AS19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT19" t="e">
         <v>#N/A</v>
@@ -4639,7 +4696,7 @@
         <v>17131.0</v>
       </c>
       <c r="AV19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AW19" t="n">
         <v>57147.0</v>
@@ -4654,16 +4711,16 @@
         <v>2.705203875E9</v>
       </c>
       <c r="BA19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BB19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BC19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BE19" t="n">
         <v>3.23</v>
@@ -4672,28 +4729,31 @@
         <v>480.0</v>
       </c>
       <c r="BG19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH19" t="n">
         <v>30.0</v>
       </c>
       <c r="BI19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN19" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
@@ -4701,7 +4761,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
         <v>3.022916505E9</v>
@@ -4713,25 +4773,25 @@
         <v>#N/A</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" t="n">
         <v>117.0</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" t="n">
         <v>290.0</v>
       </c>
       <c r="L20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" t="n">
         <v>13134.0</v>
@@ -4794,7 +4854,7 @@
         <v>7667.0</v>
       </c>
       <c r="AG20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH20" t="e">
         <v>#N/A</v>
@@ -4803,34 +4863,34 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AR20" t="n">
         <v>2.0220428E7</v>
       </c>
       <c r="AS20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT20" t="e">
         <v>#N/A</v>
@@ -4839,7 +4899,7 @@
         <v>12248.0</v>
       </c>
       <c r="AV20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW20" t="n">
         <v>40941.0</v>
@@ -4854,16 +4914,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BB20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BC20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BE20" t="n">
         <v>3.27</v>
@@ -4872,28 +4932,31 @@
         <v>470.0</v>
       </c>
       <c r="BG20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH20" t="n">
         <v>30.0</v>
       </c>
       <c r="BI20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN20" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
@@ -4901,7 +4964,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
         <v>3.022916505E9</v>
@@ -4913,25 +4976,25 @@
         <v>#N/A</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" t="n">
         <v>118.0</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" t="n">
         <v>278.0</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" t="n">
         <v>13446.0</v>
@@ -4994,7 +5057,7 @@
         <v>7021.0</v>
       </c>
       <c r="AG21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH21" t="e">
         <v>#N/A</v>
@@ -5003,34 +5066,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AR21" t="n">
         <v>2.0220505E7</v>
       </c>
       <c r="AS21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AT21" t="e">
         <v>#N/A</v>
@@ -5039,7 +5102,7 @@
         <v>13151.0</v>
       </c>
       <c r="AV21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW21" t="n">
         <v>50211.0</v>
@@ -5054,16 +5117,16 @@
         <v>2.641996423E9</v>
       </c>
       <c r="BA21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BB21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BC21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BE21" t="n">
         <v>3.27</v>
@@ -5072,28 +5135,31 @@
         <v>470.0</v>
       </c>
       <c r="BG21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH21" t="n">
         <v>30.0</v>
       </c>
       <c r="BI21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BN21" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
@@ -5101,7 +5167,7 @@
         <v>2.0220715E7</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
         <v>2.686871619E9</v>
@@ -5113,25 +5179,25 @@
         <v>#N/A</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" t="n">
         <v>99.0</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" t="n">
         <v>279.0</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" t="n">
         <v>4270.0</v>
@@ -5194,7 +5260,7 @@
         <v>8170.0</v>
       </c>
       <c r="AG22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH22" t="e">
         <v>#N/A</v>
@@ -5203,34 +5269,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AR22" t="n">
         <v>2.0220517E7</v>
       </c>
       <c r="AS22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT22" t="e">
         <v>#N/A</v>
@@ -5239,7 +5305,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AW22" t="n">
         <v>60000.0</v>
@@ -5254,16 +5320,16 @@
         <v>3.0E9</v>
       </c>
       <c r="BA22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BB22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BC22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BD22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BE22" t="n">
         <v>3.02</v>
@@ -5272,28 +5338,31 @@
         <v>520.0</v>
       </c>
       <c r="BG22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH22" t="n">
         <v>30.0</v>
       </c>
       <c r="BI22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BN22" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="23">
@@ -5301,7 +5370,7 @@
         <v>2.0220718E7</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="n">
         <v>3.002834824E9</v>
@@ -5313,25 +5382,25 @@
         <v>#N/A</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" t="n">
         <v>107.0</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" t="n">
         <v>280.0</v>
       </c>
       <c r="L23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23" t="n">
         <v>9000.0</v>
@@ -5394,7 +5463,7 @@
         <v>3886.0</v>
       </c>
       <c r="AG23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH23" t="e">
         <v>#N/A</v>
@@ -5403,34 +5472,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AR23" t="n">
         <v>2.0220622E7</v>
       </c>
       <c r="AS23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT23" t="e">
         <v>#N/A</v>
@@ -5439,7 +5508,7 @@
         <v>10000.0</v>
       </c>
       <c r="AV23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AW23" t="n">
         <v>40000.0</v>
@@ -5454,16 +5523,16 @@
         <v>2.925739924E9</v>
       </c>
       <c r="BA23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BB23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BC23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BD23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BE23" t="n">
         <v>3.2</v>
@@ -5472,28 +5541,31 @@
         <v>450.0</v>
       </c>
       <c r="BG23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH23" t="n">
         <v>30.0</v>
       </c>
       <c r="BI23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BL23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BN23" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="246">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -74,42 +74,42 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in UMI</t>
+  </si>
+  <si>
+    <t>Reads Mapped to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intergenic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intronic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Exonic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Transcriptome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Antisense to Gene</t>
+  </si>
+  <si>
+    <t>Fraction Reads in Cells</t>
+  </si>
+  <si>
+    <t>Total Genes Detected</t>
+  </si>
+  <si>
+    <t>Median UMI Counts per Cell</t>
+  </si>
+  <si>
     <t>Q30 Bases in Sample Index</t>
   </si>
   <si>
-    <t>Q30 Bases in UMI</t>
-  </si>
-  <si>
-    <t>Reads Mapped to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intergenic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intronic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Exonic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Transcriptome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Antisense to Gene</t>
-  </si>
-  <si>
-    <t>Fraction Reads in Cells</t>
-  </si>
-  <si>
-    <t>Total Genes Detected</t>
-  </si>
-  <si>
-    <t>Median UMI Counts per Cell</t>
-  </si>
-  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -224,9 +224,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
@@ -245,18 +242,6 @@
     <t>STARR_026</t>
   </si>
   <si>
-    <t>STARR_028</t>
-  </si>
-  <si>
-    <t>STARR_031</t>
-  </si>
-  <si>
-    <t>STARR_032</t>
-  </si>
-  <si>
-    <t>STARR_039</t>
-  </si>
-  <si>
     <t>STARR_041</t>
   </si>
   <si>
@@ -320,12 +305,6 @@
     <t>20220616_L1_Counts</t>
   </si>
   <si>
-    <t>20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t>20210126_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
     <t>20211105_L3_L4_Counts</t>
   </si>
   <si>
@@ -344,15 +323,6 @@
     <t>STARR_026_combine_force8966</t>
   </si>
   <si>
-    <t>STARR_031_force2072</t>
-  </si>
-  <si>
-    <t>STARR_032_force2000</t>
-  </si>
-  <si>
-    <t>STARR_039_force1500</t>
-  </si>
-  <si>
     <t>STARR_041_combine3</t>
   </si>
   <si>
@@ -398,9 +368,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Jia</t>
   </si>
   <si>
@@ -419,18 +386,6 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/molecule_info.h5</t>
-  </si>
-  <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -497,18 +452,6 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</t>
-  </si>
-  <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -569,9 +512,6 @@
     <t>10X30671</t>
   </si>
   <si>
-    <t>10X30891</t>
-  </si>
-  <si>
     <t>10X31081</t>
   </si>
   <si>
@@ -584,12 +524,6 @@
     <t>P20220001</t>
   </si>
   <si>
-    <t>P1111192</t>
-  </si>
-  <si>
-    <t>P0111212</t>
-  </si>
-  <si>
     <t>P101521</t>
   </si>
   <si>
@@ -617,18 +551,6 @@
     <t>SI-GA-F7</t>
   </si>
   <si>
-    <t>SI-GA-E7</t>
-  </si>
-  <si>
-    <t>SI-GA-C8</t>
-  </si>
-  <si>
-    <t>SI-GA-G8</t>
-  </si>
-  <si>
-    <t>SI-GA-H12</t>
-  </si>
-  <si>
     <t>SI-GA-C7</t>
   </si>
   <si>
@@ -680,18 +602,6 @@
     <t>CGTGCAGA, AACAAGAT, TCGCTTCG, GTATGCTC</t>
   </si>
   <si>
-    <t>CACGCCTT, GTATATAG, TCTCGGGC, AGGATACA</t>
-  </si>
-  <si>
-    <t>GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
-  </si>
-  <si>
-    <t>TATGAGCT, CCGATAGC, ATACCCAA, GGCTGTTG</t>
-  </si>
-  <si>
-    <t>GACAGCAT,TTTGTACA,AGGCCGTG,CCATATGC</t>
-  </si>
-  <si>
     <t>GTCTCTCG,AATCTCTC,CGGAGGGA,TCAGAAAT</t>
   </si>
   <si>
@@ -776,9 +686,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>S4 150PE</t>
   </si>
   <si>
@@ -825,12 +732,6 @@
   </si>
   <si>
     <t>20220616_L1_fastq_single</t>
-  </si>
-  <si>
-    <t>20191121_NovaSeq_fastq</t>
-  </si>
-  <si>
-    <t>20210126_UTA_NovaSeq_L3_fastq</t>
   </si>
   <si>
     <t>20211105_L3_fastq_single</t>
@@ -1119,25 +1020,25 @@
         <v>#N/A</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
         <v>17.0</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K2" t="n">
         <v>230.0</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M2" t="n">
         <v>12660.0</v>
@@ -1163,44 +1064,44 @@
       <c r="T2" t="n">
         <v>94.5</v>
       </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
+      <c r="U2" t="n">
+        <v>96.3</v>
       </c>
       <c r="V2" t="n">
-        <v>96.3</v>
+        <v>94.5</v>
       </c>
       <c r="W2" t="n">
-        <v>94.5</v>
+        <v>83.6</v>
       </c>
       <c r="X2" t="n">
-        <v>83.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>57.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.7</v>
+        <v>68.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.1</v>
+        <v>5.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.0</v>
+        <v>74.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>74.2</v>
+        <v>28572.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>28572.0</v>
-      </c>
-      <c r="AF2" t="n">
         <v>2974.0</v>
       </c>
+      <c r="AF2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1209,37 +1110,37 @@
         <v>2.0220802E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AR2" t="n">
         <v>2.0190603E7</v>
       </c>
       <c r="AS2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="AU2" t="n">
         <v>10000.0</v>
@@ -1260,16 +1161,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="BB2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="BC2" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BD2" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BE2" t="e">
         <v>#N/A</v>
@@ -1284,22 +1185,22 @@
         <v>20.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="BK2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="BL2" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM2" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="BN2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BO2" t="n">
         <v>1.0</v>
@@ -1322,25 +1223,25 @@
         <v>#N/A</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
         <v>18.0</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K3" t="n">
         <v>267.0</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M3" t="n">
         <v>7398.0</v>
@@ -1366,44 +1267,44 @@
       <c r="T3" t="n">
         <v>94.7</v>
       </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
+      <c r="U3" t="n">
+        <v>96.6</v>
       </c>
       <c r="V3" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="W3" t="n">
-        <v>96.7</v>
+        <v>91.4</v>
       </c>
       <c r="X3" t="n">
-        <v>91.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.1</v>
+        <v>62.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>62.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.6</v>
+        <v>76.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.1</v>
+        <v>4.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.9</v>
+        <v>85.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>85.7</v>
+        <v>27161.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>27161.0</v>
-      </c>
-      <c r="AF3" t="n">
         <v>6703.0</v>
       </c>
+      <c r="AF3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1412,37 +1313,37 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AM3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AR3" t="n">
         <v>2.0190624E7</v>
       </c>
       <c r="AS3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AT3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU3" t="n">
         <v>10000.0</v>
@@ -1463,16 +1364,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="BB3" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="BC3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BD3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BE3" t="e">
         <v>#N/A</v>
@@ -1487,22 +1388,22 @@
         <v>45.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="BK3" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="BL3" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="BN3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BO3" t="n">
         <v>2.0</v>
@@ -1525,25 +1426,25 @@
         <v>#N/A</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
         <v>48.0</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K4" t="n">
         <v>266.0</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M4" t="n">
         <v>9907.0</v>
@@ -1569,44 +1470,44 @@
       <c r="T4" t="n">
         <v>93.6</v>
       </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
+      <c r="U4" t="n">
+        <v>94.6</v>
       </c>
       <c r="V4" t="n">
-        <v>94.6</v>
+        <v>96.6</v>
       </c>
       <c r="W4" t="n">
-        <v>96.6</v>
+        <v>88.7</v>
       </c>
       <c r="X4" t="n">
-        <v>88.7</v>
+        <v>9.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.8</v>
+        <v>62.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>62.3</v>
+        <v>16.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.6</v>
+        <v>71.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.7</v>
+        <v>5.1</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.1</v>
+        <v>69.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>69.2</v>
+        <v>28155.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>28155.0</v>
-      </c>
-      <c r="AF4" t="n">
         <v>5863.0</v>
       </c>
+      <c r="AF4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1615,34 +1516,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AM4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="AR4" t="n">
         <v>2.0190829E7</v>
       </c>
       <c r="AS4" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="AT4" t="e">
         <v>#N/A</v>
@@ -1651,7 +1552,7 @@
         <v>8714.0</v>
       </c>
       <c r="AV4" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="n">
         <v>50000.0</v>
@@ -1666,16 +1567,16 @@
         <v>2.99217E9</v>
       </c>
       <c r="BA4" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="BB4" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="BC4" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BD4" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BE4" t="n">
         <v>3.0</v>
@@ -1684,28 +1585,28 @@
         <v>448.0</v>
       </c>
       <c r="BG4" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH4" t="n">
         <v>50.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ4" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK4" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL4" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="BM4" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="BN4" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="BO4" t="n">
         <v>3.0</v>
@@ -1728,25 +1629,25 @@
         <v>#N/A</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5" t="n">
         <v>70.0</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K5" t="n">
         <v>247.0</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M5" t="n">
         <v>8966.0</v>
@@ -1772,44 +1673,44 @@
       <c r="T5" t="n">
         <v>93.7</v>
       </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
+      <c r="U5" t="n">
+        <v>95.3</v>
       </c>
       <c r="V5" t="n">
-        <v>95.3</v>
+        <v>96.7</v>
       </c>
       <c r="W5" t="n">
-        <v>96.7</v>
+        <v>90.4</v>
       </c>
       <c r="X5" t="n">
-        <v>90.4</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>63.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>63.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.3</v>
+        <v>75.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.2</v>
+        <v>64.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>64.4</v>
+        <v>26965.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>26965.0</v>
-      </c>
-      <c r="AF5" t="n">
         <v>3932.0</v>
       </c>
+      <c r="AF5" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -1818,34 +1719,34 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AM5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN5" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AR5" t="n">
         <v>2.0190909E7</v>
       </c>
       <c r="AS5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AT5" t="e">
         <v>#N/A</v>
@@ -1854,7 +1755,7 @@
         <v>6512.0</v>
       </c>
       <c r="AV5" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="n">
         <v>25000.0</v>
@@ -1869,16 +1770,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA5" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="BB5" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="BC5" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BD5" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BE5" t="e">
         <v>#N/A</v>
@@ -1887,28 +1788,28 @@
         <v>#N/A</v>
       </c>
       <c r="BG5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="BH5" t="n">
         <v>20.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ5" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK5" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL5" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="BM5" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="BN5" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="BO5" t="n">
         <v>4.0</v>
@@ -1916,202 +1817,202 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
-        <v>2.529556633E9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.2</v>
+        <v>2.901329438E9</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>28.0</v>
+        <v>71.0</v>
       </c>
       <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
         <v>96</v>
       </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
       <c r="K6" t="n">
-        <v>44.0</v>
+        <v>156.0</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M6" t="n">
-        <v>2288.0</v>
+        <v>15847.0</v>
       </c>
       <c r="N6" t="n">
-        <v>245361.0</v>
+        <v>97871.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1876.0</v>
+        <v>1959.0</v>
       </c>
       <c r="P6" t="n">
-        <v>5.61385615E8</v>
+        <v>1.55096837E9</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.5</v>
+        <v>81.8</v>
       </c>
       <c r="S6" t="n">
         <v>95.6</v>
       </c>
       <c r="T6" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
+        <v>93.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>95.1</v>
       </c>
       <c r="V6" t="n">
-        <v>95.2</v>
+        <v>94.4</v>
       </c>
       <c r="W6" t="n">
-        <v>94.7</v>
+        <v>82.2</v>
       </c>
       <c r="X6" t="n">
-        <v>86.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.0</v>
+        <v>53.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>50.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>26.2</v>
+        <v>68.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.4</v>
+        <v>4.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.8</v>
+        <v>79.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>73.5</v>
+        <v>29138.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>25014.0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>3777.0</v>
+        <v>3038.0</v>
+      </c>
+      <c r="AF6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI6" t="e">
-        <v>#N/A</v>
+        <v>117</v>
+      </c>
+      <c r="AH6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.0220624E7</v>
       </c>
       <c r="AJ6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AM6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.0190909E7</v>
+        <v>2.0190923E7</v>
       </c>
       <c r="AS6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT6" t="e">
-        <v>#N/A</v>
+        <v>76</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>166</v>
       </c>
       <c r="AU6" t="n">
-        <v>10000.0</v>
+        <v>12710.0</v>
       </c>
       <c r="AV6" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AW6" t="n">
-        <v>50000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.0E8</v>
+        <v>4.4485E8</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1999992000032</v>
+        <v>0.151</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.50001E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA6" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="BB6" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="BC6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN6" t="s">
         <v>239</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>239</v>
-      </c>
-      <c r="BE6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>510.0</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>271</v>
       </c>
       <c r="BO6" t="n">
         <v>5.0</v>
@@ -2119,13 +2020,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>2.529556633E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D7" t="e">
         <v>#N/A</v>
@@ -2134,88 +2035,88 @@
         <v>#N/A</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>27.0</v>
+        <v>72.0</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
       <c r="K7" t="n">
-        <v>267.0</v>
+        <v>269.0</v>
       </c>
       <c r="L7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
-        <v>2072.0</v>
+        <v>9146.0</v>
       </c>
       <c r="N7" t="n">
-        <v>208533.0</v>
+        <v>95965.0</v>
       </c>
       <c r="O7" t="n">
-        <v>2300.0</v>
+        <v>2390.0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.32080145E8</v>
+        <v>8.77693939E8</v>
       </c>
       <c r="Q7" t="n">
         <v>97.3</v>
       </c>
       <c r="R7" t="n">
-        <v>77.0</v>
+        <v>83.3</v>
       </c>
       <c r="S7" t="n">
-        <v>95.4</v>
+        <v>95.6</v>
       </c>
       <c r="T7" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
+        <v>93.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>95.1</v>
       </c>
       <c r="V7" t="n">
-        <v>95.0</v>
+        <v>92.3</v>
       </c>
       <c r="W7" t="n">
-        <v>94.6</v>
+        <v>80.9</v>
       </c>
       <c r="X7" t="n">
-        <v>77.4</v>
+        <v>7.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>55.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>50.8</v>
+        <v>17.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.3</v>
+        <v>67.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>64.5</v>
+        <v>3.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.7</v>
+        <v>79.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>38.1</v>
+        <v>27946.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>24817.0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>4672.0</v>
+        <v>5029.0</v>
+      </c>
+      <c r="AF7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2224,97 +2125,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.0190905E7</v>
+        <v>2.0201119E7</v>
       </c>
       <c r="AS7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT7" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>167</v>
       </c>
       <c r="AU7" t="n">
-        <v>10000.0</v>
+        <v>9886.0</v>
       </c>
       <c r="AV7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AW7" t="n">
-        <v>50000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.0E8</v>
+        <v>2.4715E8</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1999992000032</v>
+        <v>0.084</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.50001E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="BB7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG7" t="s">
         <v>223</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BH7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN7" t="s">
         <v>239</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>239</v>
-      </c>
-      <c r="BE7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>262</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>271</v>
       </c>
       <c r="BO7" t="n">
         <v>6.0</v>
@@ -2322,13 +2223,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>2.529556633E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
@@ -2337,187 +2238,187 @@
         <v>#N/A</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" t="n">
-        <v>30.0</v>
+        <v>59.0</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K8" t="n">
-        <v>97.0</v>
+        <v>289.0</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>2000.0</v>
+        <v>8535.0</v>
       </c>
       <c r="N8" t="n">
-        <v>222245.0</v>
+        <v>90572.0</v>
       </c>
       <c r="O8" t="n">
-        <v>2010.0</v>
+        <v>3594.0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.44489382E8</v>
+        <v>7.7302905E8</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.9</v>
+        <v>97.5</v>
       </c>
       <c r="R8" t="n">
-        <v>90.2</v>
+        <v>67.7</v>
       </c>
       <c r="S8" t="n">
-        <v>95.4</v>
+        <v>94.6</v>
       </c>
       <c r="T8" t="n">
-        <v>92.9</v>
-      </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
+        <v>93.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>94.1</v>
       </c>
       <c r="V8" t="n">
-        <v>95.1</v>
+        <v>96.4</v>
       </c>
       <c r="W8" t="n">
-        <v>90.8</v>
+        <v>89.7</v>
       </c>
       <c r="X8" t="n">
-        <v>80.5</v>
+        <v>7.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.7</v>
+        <v>61.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>56.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.4</v>
+        <v>73.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.1</v>
+        <v>6.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>79.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>51.3</v>
+        <v>28473.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>23813.0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4002.0</v>
+        <v>10436.0</v>
+      </c>
+      <c r="AF8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.0211108E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AM8" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.0191018E7</v>
+        <v>2.0210409E7</v>
       </c>
       <c r="AS8" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AT8" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU8" t="n">
-        <v>10000.0</v>
+        <v>8464.0</v>
       </c>
       <c r="AV8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AW8" t="n">
-        <v>50001.0</v>
+        <v>35280.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.0001E8</v>
+        <v>2.9860992E8</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.2000031999872</v>
+        <v>0.0971397380115092</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.50001E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BA8" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="BB8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BI8" t="s">
         <v>224</v>
       </c>
-      <c r="BC8" t="s">
-        <v>239</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>239</v>
-      </c>
-      <c r="BE8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>406.0</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>255</v>
-      </c>
       <c r="BJ8" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="BK8" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL8" t="e">
-        <v>#N/A</v>
+        <v>228</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>229</v>
       </c>
       <c r="BM8" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="BN8" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="BO8" t="n">
         <v>7.0</v>
@@ -2525,13 +2426,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.0210126E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="n">
-        <v>3.028254122E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D9" t="e">
         <v>#N/A</v>
@@ -2540,187 +2441,187 @@
         <v>#N/A</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
-        <v>34.0</v>
+        <v>73.0</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
       <c r="K9" t="n">
-        <v>99.0</v>
+        <v>271.0</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>1500.0</v>
+        <v>5793.0</v>
       </c>
       <c r="N9" t="n">
-        <v>479310.0</v>
+        <v>121886.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1818.0</v>
+        <v>2572.0</v>
       </c>
       <c r="P9" t="n">
-        <v>7.18965036E8</v>
+        <v>7.06088154E8</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.9</v>
+        <v>97.6</v>
       </c>
       <c r="R9" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="T9" t="n">
         <v>93.1</v>
       </c>
-      <c r="S9" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
+      <c r="U9" t="n">
+        <v>95.3</v>
       </c>
       <c r="V9" t="n">
-        <v>94.9</v>
+        <v>92.9</v>
       </c>
       <c r="W9" t="n">
-        <v>89.3</v>
+        <v>84.7</v>
       </c>
       <c r="X9" t="n">
-        <v>78.7</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>49.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>48.9</v>
+        <v>27.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.6</v>
+        <v>57.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>64.7</v>
+        <v>17.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.8</v>
+        <v>73.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>49.8</v>
+        <v>28625.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>24419.0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>3237.0</v>
+        <v>5646.0</v>
+      </c>
+      <c r="AF9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.0220818E7</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL9" t="s">
         <v>127</v>
       </c>
-      <c r="AH9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.0211103E7</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>138</v>
       </c>
-      <c r="AM9" t="s">
-        <v>153</v>
-      </c>
       <c r="AN9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.0200211E7</v>
+        <v>2.0211028E7</v>
       </c>
       <c r="AS9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="AT9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU9" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV9" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="AW9" t="n">
-        <v>75000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.5E8</v>
+        <v>7.0E8</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.25</v>
+        <v>0.236902666847164</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.0E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA9" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="BB9" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="BC9" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="BD9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.03</v>
+        <v>5.24</v>
       </c>
       <c r="BF9" t="n">
-        <v>328.0</v>
+        <v>454.0</v>
       </c>
       <c r="BG9" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="BH9" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ9" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK9" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BM9" t="e">
-        <v>#N/A</v>
+        <v>228</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>233</v>
       </c>
       <c r="BN9" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="BO9" t="n">
         <v>8.0</v>
@@ -2728,13 +2629,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>2.901329438E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>
@@ -2743,187 +2644,187 @@
         <v>#N/A</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>71.0</v>
+        <v>115.0</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K10" t="n">
-        <v>156.0</v>
+        <v>272.0</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>15847.0</v>
+        <v>9464.0</v>
       </c>
       <c r="N10" t="n">
-        <v>97871.0</v>
+        <v>148705.0</v>
       </c>
       <c r="O10" t="n">
-        <v>1959.0</v>
+        <v>3131.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55096837E9</v>
+        <v>1.407347538E9</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.0</v>
+        <v>96.1</v>
       </c>
       <c r="R10" t="n">
-        <v>81.8</v>
+        <v>79.1</v>
       </c>
       <c r="S10" t="n">
-        <v>95.6</v>
+        <v>96.1</v>
       </c>
       <c r="T10" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
+        <v>93.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>95.4</v>
       </c>
       <c r="V10" t="n">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="W10" t="n">
-        <v>94.4</v>
+        <v>90.3</v>
       </c>
       <c r="X10" t="n">
-        <v>82.2</v>
+        <v>8.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.2</v>
+        <v>57.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>53.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.1</v>
+        <v>48.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>68.1</v>
+        <v>31.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.9</v>
+        <v>70.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>79.2</v>
+        <v>29575.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>29138.0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>3038.0</v>
+        <v>7757.0</v>
+      </c>
+      <c r="AF10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.0220624E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN10" t="s">
         <v>139</v>
       </c>
-      <c r="AM10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>154</v>
-      </c>
       <c r="AO10" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.0190923E7</v>
+        <v>2.0211111E7</v>
       </c>
       <c r="AS10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>186</v>
+        <v>80</v>
+      </c>
+      <c r="AT10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU10" t="n">
-        <v>12710.0</v>
+        <v>13939.0</v>
       </c>
       <c r="AV10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AW10" t="n">
-        <v>35000.0</v>
+        <v>47723.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.4485E8</v>
+        <v>6.65210897E8</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.151</v>
+        <v>0.251783420752951</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.9548E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="BB10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ10" t="s">
         <v>226</v>
       </c>
-      <c r="BC10" t="s">
-        <v>239</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>239</v>
-      </c>
-      <c r="BE10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>253</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>257</v>
-      </c>
       <c r="BK10" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL10" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="BM10" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="BN10" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="BO10" t="n">
         <v>9.0</v>
@@ -2931,13 +2832,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>2.901329438E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -2946,88 +2847,88 @@
         <v>#N/A</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>72.0</v>
+        <v>113.0</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0</v>
+        <v>273.0</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>9146.0</v>
+        <v>7508.0</v>
       </c>
       <c r="N11" t="n">
-        <v>95965.0</v>
+        <v>114259.0</v>
       </c>
       <c r="O11" t="n">
-        <v>2390.0</v>
+        <v>3071.0</v>
       </c>
       <c r="P11" t="n">
-        <v>8.77693939E8</v>
+        <v>8.57858458E8</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.3</v>
+        <v>98.2</v>
       </c>
       <c r="R11" t="n">
-        <v>83.3</v>
+        <v>68.3</v>
       </c>
       <c r="S11" t="n">
-        <v>95.6</v>
+        <v>96.0</v>
       </c>
       <c r="T11" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
+        <v>94.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>95.5</v>
       </c>
       <c r="V11" t="n">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="W11" t="n">
-        <v>92.3</v>
+        <v>88.9</v>
       </c>
       <c r="X11" t="n">
-        <v>80.9</v>
+        <v>9.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.9</v>
+        <v>59.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>55.7</v>
+        <v>20.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.4</v>
+        <v>63.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>67.4</v>
+        <v>14.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.6</v>
+        <v>70.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>79.5</v>
+        <v>28945.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>27946.0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>5029.0</v>
+        <v>7878.0</v>
+      </c>
+      <c r="AF11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
@@ -3036,97 +2937,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL11" t="s">
         <v>129</v>
       </c>
-      <c r="AK11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO11" t="s">
         <v>140</v>
       </c>
-      <c r="AM11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>155</v>
-      </c>
       <c r="AP11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ11" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.0201119E7</v>
+        <v>2.021121E7</v>
       </c>
       <c r="AS11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>187</v>
+        <v>81</v>
+      </c>
+      <c r="AT11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU11" t="n">
-        <v>9886.0</v>
+        <v>9511.0</v>
       </c>
       <c r="AV11" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AW11" t="n">
-        <v>25000.0</v>
+        <v>39816.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.4715E8</v>
+        <v>3.78689976E8</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.084</v>
+        <v>0.14333477998051</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.9548E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA11" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="BB11" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="BC11" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="BD11" t="s">
-        <v>239</v>
-      </c>
-      <c r="BE11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF11" t="e">
-        <v>#N/A</v>
+        <v>213</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>470.0</v>
       </c>
       <c r="BG11" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="BH11" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ11" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK11" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL11" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="BM11" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="BN11" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="BO11" t="n">
         <v>10.0</v>
@@ -3134,13 +3035,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>2.590729371E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -3149,187 +3050,187 @@
         <v>#N/A</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H12" t="n">
-        <v>59.0</v>
+        <v>114.0</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K12" t="n">
-        <v>289.0</v>
+        <v>274.0</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M12" t="n">
-        <v>8535.0</v>
+        <v>8196.0</v>
       </c>
       <c r="N12" t="n">
-        <v>90572.0</v>
+        <v>97650.0</v>
       </c>
       <c r="O12" t="n">
-        <v>3594.0</v>
+        <v>2773.0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.7302905E8</v>
+        <v>8.00342375E8</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.5</v>
+        <v>98.0</v>
       </c>
       <c r="R12" t="n">
-        <v>67.7</v>
+        <v>78.8</v>
       </c>
       <c r="S12" t="n">
-        <v>94.6</v>
+        <v>95.8</v>
       </c>
       <c r="T12" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
+        <v>93.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>95.1</v>
       </c>
       <c r="V12" t="n">
-        <v>94.1</v>
+        <v>96.5</v>
       </c>
       <c r="W12" t="n">
-        <v>96.4</v>
+        <v>91.0</v>
       </c>
       <c r="X12" t="n">
-        <v>89.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.9</v>
+        <v>58.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>61.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>62.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>73.2</v>
+        <v>18.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>84.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>79.7</v>
+        <v>29019.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>28473.0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10436.0</v>
+        <v>6762.0</v>
+      </c>
+      <c r="AF12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.0220822E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL12" t="s">
         <v>130</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP12" t="s">
         <v>141</v>
       </c>
-      <c r="AM12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>156</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.0210409E7</v>
+        <v>2.0220311E7</v>
       </c>
       <c r="AS12" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="AT12" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU12" t="n">
-        <v>8464.0</v>
+        <v>8650.0</v>
       </c>
       <c r="AV12" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AW12" t="n">
-        <v>35280.0</v>
+        <v>13418.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.9860992E8</v>
+        <v>1.160657E8</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0971397380115092</v>
+        <v>0.0439310587211949</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.07402435E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA12" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="BB12" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="BD12" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="BF12" t="n">
-        <v>494.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG12" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH12" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ12" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK12" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL12" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="BM12" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="BN12" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="BO12" t="n">
         <v>11.0</v>
@@ -3337,13 +3238,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="n">
-        <v>2.901329438E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -3352,88 +3253,88 @@
         <v>#N/A</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H13" t="n">
-        <v>73.0</v>
+        <v>119.0</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K13" t="n">
-        <v>271.0</v>
+        <v>275.0</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M13" t="n">
-        <v>5793.0</v>
+        <v>11261.0</v>
       </c>
       <c r="N13" t="n">
-        <v>121886.0</v>
+        <v>113321.0</v>
       </c>
       <c r="O13" t="n">
-        <v>2572.0</v>
+        <v>3604.0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.06088154E8</v>
+        <v>1.276111489E9</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.6</v>
+        <v>98.0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.4</v>
+        <v>72.5</v>
       </c>
       <c r="S13" t="n">
         <v>96.0</v>
       </c>
       <c r="T13" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="U13" t="e">
-        <v>#N/A</v>
+        <v>94.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>95.4</v>
       </c>
       <c r="V13" t="n">
-        <v>95.3</v>
+        <v>95.9</v>
       </c>
       <c r="W13" t="n">
-        <v>92.9</v>
+        <v>89.4</v>
       </c>
       <c r="X13" t="n">
-        <v>84.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.6</v>
+        <v>54.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>49.0</v>
+        <v>27.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>27.1</v>
+        <v>64.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>57.0</v>
+        <v>15.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>17.7</v>
+        <v>70.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>73.7</v>
+        <v>29580.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>28625.0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>5646.0</v>
+        <v>9346.0</v>
+      </c>
+      <c r="AF13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH13" t="e">
         <v>#N/A</v>
@@ -3442,97 +3343,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>153</v>
       </c>
-      <c r="AN13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>168</v>
-      </c>
       <c r="AR13" t="n">
-        <v>2.0211028E7</v>
+        <v>2.0220304E7</v>
       </c>
       <c r="AS13" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AT13" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU13" t="n">
-        <v>10000.0</v>
+        <v>13279.0</v>
       </c>
       <c r="AV13" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="AW13" t="n">
-        <v>70000.0</v>
+        <v>45518.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.0E8</v>
+        <v>6.04433522E8</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.236902666847164</v>
+        <v>0.223433630117804</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.9548E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA13" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="BB13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK13" t="s">
         <v>228</v>
       </c>
-      <c r="BC13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>241</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>454.0</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>253</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>259</v>
-      </c>
       <c r="BL13" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="BM13" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="BN13" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="BO13" t="n">
         <v>12.0</v>
@@ -3543,7 +3444,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
         <v>3.022916505E9</v>
@@ -3555,157 +3456,157 @@
         <v>#N/A</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H14" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
       <c r="K14" t="n">
-        <v>272.0</v>
+        <v>254.0</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M14" t="n">
-        <v>9464.0</v>
+        <v>13147.0</v>
       </c>
       <c r="N14" t="n">
-        <v>148705.0</v>
+        <v>99921.0</v>
       </c>
       <c r="O14" t="n">
-        <v>3131.0</v>
+        <v>2630.0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.407347538E9</v>
+        <v>1.313660155E9</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.1</v>
+        <v>98.1</v>
       </c>
       <c r="R14" t="n">
-        <v>79.1</v>
+        <v>76.3</v>
       </c>
       <c r="S14" t="n">
         <v>96.1</v>
       </c>
       <c r="T14" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
+        <v>93.8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>95.5</v>
       </c>
       <c r="V14" t="n">
-        <v>95.4</v>
+        <v>96.3</v>
       </c>
       <c r="W14" t="n">
-        <v>95.8</v>
+        <v>91.1</v>
       </c>
       <c r="X14" t="n">
-        <v>90.3</v>
+        <v>8.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.8</v>
+        <v>60.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>57.7</v>
+        <v>22.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.8</v>
+        <v>64.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>48.3</v>
+        <v>16.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>31.9</v>
+        <v>81.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>70.9</v>
+        <v>29810.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>29575.0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7757.0</v>
+        <v>5861.0</v>
+      </c>
+      <c r="AF14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.0220818E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>154</v>
       </c>
-      <c r="AO14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>169</v>
-      </c>
       <c r="AR14" t="n">
-        <v>2.0211111E7</v>
+        <v>2.0220325E7</v>
       </c>
       <c r="AS14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT14" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU14" t="n">
-        <v>13939.0</v>
+        <v>12639.0</v>
       </c>
       <c r="AV14" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="AW14" t="n">
-        <v>47723.0</v>
+        <v>25339.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.65210897E8</v>
+        <v>3.20259621E8</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.251783420752951</v>
+        <v>0.121218794322342</v>
       </c>
       <c r="AZ14" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="BB14" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="BC14" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="BD14" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="BE14" t="n">
         <v>3.27</v>
@@ -3714,28 +3615,28 @@
         <v>470.0</v>
       </c>
       <c r="BG14" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH14" t="n">
         <v>30.0</v>
       </c>
       <c r="BI14" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ14" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK14" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL14" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="BM14" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="BN14" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="BO14" t="n">
         <v>13.0</v>
@@ -3749,7 +3650,7 @@
         <v>71</v>
       </c>
       <c r="C15" t="n">
-        <v>3.022916505E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -3758,88 +3659,88 @@
         <v>#N/A</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H15" t="n">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
         <v>98</v>
       </c>
-      <c r="J15" t="s">
-        <v>105</v>
-      </c>
       <c r="K15" t="n">
-        <v>273.0</v>
+        <v>276.0</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M15" t="n">
-        <v>7508.0</v>
+        <v>18792.0</v>
       </c>
       <c r="N15" t="n">
-        <v>114259.0</v>
+        <v>101242.0</v>
       </c>
       <c r="O15" t="n">
-        <v>3071.0</v>
+        <v>2548.0</v>
       </c>
       <c r="P15" t="n">
-        <v>8.57858458E8</v>
+        <v>1.9025476E9</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.2</v>
+        <v>97.9</v>
       </c>
       <c r="R15" t="n">
-        <v>68.3</v>
+        <v>81.7</v>
       </c>
       <c r="S15" t="n">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="T15" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="U15" t="e">
-        <v>#N/A</v>
+        <v>94.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>95.5</v>
       </c>
       <c r="V15" t="n">
-        <v>95.5</v>
+        <v>96.6</v>
       </c>
       <c r="W15" t="n">
-        <v>95.8</v>
+        <v>91.2</v>
       </c>
       <c r="X15" t="n">
-        <v>88.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.1</v>
+        <v>54.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>59.1</v>
+        <v>28.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.7</v>
+        <v>60.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>63.9</v>
+        <v>21.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.1</v>
+        <v>84.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>70.8</v>
+        <v>30002.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>28945.0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7878.0</v>
+        <v>5372.0</v>
+      </c>
+      <c r="AF15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
@@ -3848,97 +3749,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK15" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>155</v>
       </c>
-      <c r="AP15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>170</v>
-      </c>
       <c r="AR15" t="n">
-        <v>2.021121E7</v>
+        <v>2.0220407E7</v>
       </c>
       <c r="AS15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT15" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU15" t="n">
-        <v>9511.0</v>
+        <v>17131.0</v>
       </c>
       <c r="AV15" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="AW15" t="n">
-        <v>39816.0</v>
+        <v>57147.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.78689976E8</v>
+        <v>9.78985257E8</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.14333477998051</v>
+        <v>0.361889640203181</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.641996423E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA15" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="BB15" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="BC15" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="BD15" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="BF15" t="n">
-        <v>470.0</v>
+        <v>480.0</v>
       </c>
       <c r="BG15" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH15" t="n">
         <v>30.0</v>
       </c>
       <c r="BI15" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ15" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK15" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL15" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="BM15" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="BN15" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="BO15" t="n">
         <v>14.0</v>
@@ -3949,7 +3850,7 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="n">
         <v>3.022916505E9</v>
@@ -3961,157 +3862,157 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H16" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
         <v>98</v>
       </c>
-      <c r="J16" t="s">
-        <v>105</v>
-      </c>
       <c r="K16" t="n">
-        <v>274.0</v>
+        <v>290.0</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M16" t="n">
-        <v>8196.0</v>
+        <v>13134.0</v>
       </c>
       <c r="N16" t="n">
-        <v>97650.0</v>
+        <v>101100.0</v>
       </c>
       <c r="O16" t="n">
-        <v>2773.0</v>
+        <v>3168.0</v>
       </c>
       <c r="P16" t="n">
-        <v>8.00342375E8</v>
+        <v>1.327847231E9</v>
       </c>
       <c r="Q16" t="n">
         <v>98.0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.8</v>
+        <v>77.2</v>
       </c>
       <c r="S16" t="n">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="T16" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="U16" t="e">
-        <v>#N/A</v>
+        <v>93.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>95.5</v>
       </c>
       <c r="V16" t="n">
-        <v>95.1</v>
+        <v>96.0</v>
       </c>
       <c r="W16" t="n">
-        <v>96.5</v>
+        <v>90.1</v>
       </c>
       <c r="X16" t="n">
-        <v>91.0</v>
+        <v>8.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.8</v>
+        <v>58.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>58.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>24.7</v>
+        <v>62.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>62.7</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>18.9</v>
+        <v>82.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>84.3</v>
+        <v>30019.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>29019.0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6762.0</v>
+        <v>7667.0</v>
+      </c>
+      <c r="AF16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL16" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AM16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>156</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="n">
+        <v>2.0220428E7</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>12248.0</v>
+      </c>
+      <c r="AV16" t="s">
         <v>171</v>
       </c>
-      <c r="AR16" t="n">
-        <v>2.0220311E7</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8650.0</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>193</v>
-      </c>
       <c r="AW16" t="n">
-        <v>13418.0</v>
+        <v>40941.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.160657E8</v>
+        <v>5.01445368E8</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.0439310587211949</v>
+        <v>0.189797898148025</v>
       </c>
       <c r="AZ16" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC16" t="s">
         <v>210</v>
       </c>
-      <c r="BB16" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>240</v>
-      </c>
       <c r="BD16" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="BE16" t="n">
         <v>3.27</v>
@@ -4120,28 +4021,28 @@
         <v>470.0</v>
       </c>
       <c r="BG16" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH16" t="n">
         <v>30.0</v>
       </c>
       <c r="BI16" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ16" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK16" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL16" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="BM16" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="BN16" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="BO16" t="n">
         <v>15.0</v>
@@ -4152,10 +4053,10 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="n">
-        <v>3.069499968E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D17" t="e">
         <v>#N/A</v>
@@ -4164,88 +4065,88 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
         <v>98</v>
       </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
       <c r="K17" t="n">
-        <v>275.0</v>
+        <v>278.0</v>
       </c>
       <c r="L17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M17" t="n">
-        <v>11261.0</v>
+        <v>13446.0</v>
       </c>
       <c r="N17" t="n">
-        <v>113321.0</v>
+        <v>99434.0</v>
       </c>
       <c r="O17" t="n">
-        <v>3604.0</v>
+        <v>2869.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.276111489E9</v>
+        <v>1.336986912E9</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="R17" t="n">
-        <v>72.5</v>
+        <v>77.0</v>
       </c>
       <c r="S17" t="n">
         <v>96.0</v>
       </c>
       <c r="T17" t="n">
-        <v>94.4</v>
-      </c>
-      <c r="U17" t="e">
-        <v>#N/A</v>
+        <v>93.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>95.5</v>
       </c>
       <c r="V17" t="n">
-        <v>95.4</v>
+        <v>96.0</v>
       </c>
       <c r="W17" t="n">
-        <v>95.9</v>
+        <v>89.8</v>
       </c>
       <c r="X17" t="n">
-        <v>89.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>59.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>54.1</v>
+        <v>21.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>27.5</v>
+        <v>61.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>64.3</v>
+        <v>18.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.7</v>
+        <v>84.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>70.8</v>
+        <v>29708.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>29580.0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9346.0</v>
+        <v>7021.0</v>
+      </c>
+      <c r="AF17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
@@ -4254,97 +4155,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL17" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AM17" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN17" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO17" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.0220304E7</v>
+        <v>2.0220505E7</v>
       </c>
       <c r="AS17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT17" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU17" t="n">
-        <v>13279.0</v>
+        <v>13151.0</v>
       </c>
       <c r="AV17" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="AW17" t="n">
-        <v>45518.0</v>
+        <v>50211.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.04433522E8</v>
+        <v>6.60324861E8</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.223433630117804</v>
+        <v>0.249934048074977</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.705203875E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA17" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="BB17" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="BC17" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="BD17" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="BF17" t="n">
-        <v>480.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG17" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH17" t="n">
         <v>30.0</v>
       </c>
       <c r="BI17" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ17" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK17" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL17" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="BM17" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="BN17" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="BO17" t="n">
         <v>16.0</v>
@@ -4352,13 +4253,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="n">
-        <v>3.022916505E9</v>
+        <v>2.686871619E9</v>
       </c>
       <c r="D18" t="e">
         <v>#N/A</v>
@@ -4367,187 +4268,187 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H18" t="n">
-        <v>116.0</v>
+        <v>99.0</v>
       </c>
       <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
         <v>98</v>
       </c>
-      <c r="J18" t="s">
-        <v>105</v>
-      </c>
       <c r="K18" t="n">
-        <v>254.0</v>
+        <v>279.0</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M18" t="n">
-        <v>13147.0</v>
+        <v>4270.0</v>
       </c>
       <c r="N18" t="n">
-        <v>99921.0</v>
+        <v>112157.0</v>
       </c>
       <c r="O18" t="n">
-        <v>2630.0</v>
+        <v>3192.0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.313660155E9</v>
+        <v>4.78908775E8</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="R18" t="n">
-        <v>76.3</v>
+        <v>75.6</v>
       </c>
       <c r="S18" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="T18" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="U18" t="e">
-        <v>#N/A</v>
+        <v>94.7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>95.7</v>
       </c>
       <c r="V18" t="n">
         <v>95.5</v>
       </c>
       <c r="W18" t="n">
-        <v>96.3</v>
+        <v>88.2</v>
       </c>
       <c r="X18" t="n">
-        <v>91.1</v>
+        <v>8.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.4</v>
+        <v>57.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>60.7</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.0</v>
+        <v>63.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>64.3</v>
+        <v>13.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>16.6</v>
+        <v>72.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>81.9</v>
+        <v>28245.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>29810.0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5861.0</v>
+        <v>8170.0</v>
+      </c>
+      <c r="AF18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH18" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL18" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AM18" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN18" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO18" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.0220517E7</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AV18" t="s">
         <v>173</v>
       </c>
-      <c r="AR18" t="n">
-        <v>2.0220325E7</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>12639.0</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>193</v>
-      </c>
       <c r="AW18" t="n">
-        <v>25339.0</v>
+        <v>60000.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.20259621E8</v>
+        <v>6.0E8</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.121218794322342</v>
+        <v>0.2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.641996423E9</v>
+        <v>3.0E9</v>
       </c>
       <c r="BA18" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="BB18" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="BC18" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="BD18" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="BE18" t="n">
-        <v>3.27</v>
+        <v>3.02</v>
       </c>
       <c r="BF18" t="n">
-        <v>470.0</v>
+        <v>520.0</v>
       </c>
       <c r="BG18" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH18" t="n">
         <v>30.0</v>
       </c>
       <c r="BI18" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ18" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK18" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL18" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="BM18" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="BN18" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="BO18" t="n">
         <v>17.0</v>
@@ -4555,13 +4456,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
-        <v>3.069499968E9</v>
+        <v>3.002834824E9</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -4570,88 +4471,88 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" t="s">
-        <v>95</v>
-      </c>
       <c r="H19" t="n">
-        <v>121.0</v>
+        <v>107.0</v>
       </c>
       <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
         <v>98</v>
       </c>
-      <c r="J19" t="s">
-        <v>105</v>
-      </c>
       <c r="K19" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="L19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M19" t="n">
-        <v>18792.0</v>
+        <v>9000.0</v>
       </c>
       <c r="N19" t="n">
-        <v>101242.0</v>
+        <v>282445.0</v>
       </c>
       <c r="O19" t="n">
-        <v>2548.0</v>
+        <v>2156.0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9025476E9</v>
+        <v>2.542002423E9</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.9</v>
+        <v>95.8</v>
       </c>
       <c r="R19" t="n">
-        <v>81.7</v>
+        <v>87.9</v>
       </c>
       <c r="S19" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="T19" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="U19" t="e">
-        <v>#N/A</v>
+        <v>93.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>95.4</v>
       </c>
       <c r="V19" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="W19" t="n">
-        <v>96.6</v>
+        <v>90.2</v>
       </c>
       <c r="X19" t="n">
-        <v>91.2</v>
+        <v>9.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.1</v>
+        <v>61.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>54.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>28.5</v>
+        <v>46.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>60.3</v>
+        <v>33.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>21.3</v>
+        <v>83.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>84.4</v>
+        <v>29948.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>30002.0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>5372.0</v>
+        <v>3886.0</v>
+      </c>
+      <c r="AF19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AH19" t="e">
         <v>#N/A</v>
@@ -4660,912 +4561,100 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AL19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AM19" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN19" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AO19" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AP19" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2.0220622E7</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AV19" t="s">
         <v>174</v>
       </c>
-      <c r="AR19" t="n">
-        <v>2.0220407E7</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>17131.0</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>194</v>
-      </c>
       <c r="AW19" t="n">
-        <v>57147.0</v>
+        <v>40000.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>9.78985257E8</v>
+        <v>4.0E8</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.361889640203181</v>
+        <v>0.1367</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2.705203875E9</v>
+        <v>2.925739924E9</v>
       </c>
       <c r="BA19" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="BB19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="BC19" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="BD19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="BF19" t="n">
-        <v>480.0</v>
+        <v>450.0</v>
       </c>
       <c r="BG19" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="BH19" t="n">
         <v>30.0</v>
       </c>
       <c r="BI19" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="BJ19" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="BK19" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="BL19" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="BM19" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="BN19" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="BO19" t="n">
         <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.022916505E9</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" t="n">
-        <v>13134.0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>101100.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3168.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.327847231E9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>96.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V20" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>90.1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>30019.0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7667.0</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>2.0220822E7</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>2.0220428E7</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>12248.0</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>40941.0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.01445368E8</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.189797898148025</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>2.641996423E9</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>248</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>266</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.022916505E9</v>
-      </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" t="n">
-        <v>278.0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" t="n">
-        <v>13446.0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99434.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2869.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.336986912E9</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="R21" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="U21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V21" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>29708.0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7021.0</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>2.0220505E7</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>13151.0</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>50211.0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>6.60324861E8</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.249934048074977</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>2.641996423E9</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>236</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>249</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>266</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.0220715E7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.686871619E9</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" t="n">
-        <v>279.0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4270.0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>112157.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3192.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.78908775E8</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="R22" t="n">
-        <v>75.6</v>
-      </c>
-      <c r="S22" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="T22" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="U22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="W22" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>28245.0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8170.0</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>2.0220517E7</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>195</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>6.0E8</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>3.0E9</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>237</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>216</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>250</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>520.0</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>277</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2.0220718E7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.002834824E9</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" t="n">
-        <v>9000.0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>282445.0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2156.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.542002423E9</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="R23" t="n">
-        <v>87.9</v>
-      </c>
-      <c r="S23" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="U23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V23" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>29948.0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>3886.0</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>2.0220622E7</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4.0E8</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>2.925739924E9</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>217</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>251</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>268</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>278</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>22.0</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.sn.aggr.info.xlsx
@@ -74,6 +74,9 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in Sample Index</t>
+  </si>
+  <si>
     <t>Q30 Bases in UMI</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
   </si>
   <si>
     <t>Median UMI Counts per Cell</t>
-  </si>
-  <si>
-    <t>Q30 Bases in Sample Index</t>
   </si>
   <si>
     <t>Agg</t>
@@ -1064,41 +1064,41 @@
       <c r="T2" t="n">
         <v>94.5</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="n">
         <v>96.3</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>94.5</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>83.6</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>57.4</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>17.7</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>68.1</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>74.2</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>28572.0</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>2974.0</v>
-      </c>
-      <c r="AF2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG2" t="s">
         <v>117</v>
@@ -1267,41 +1267,41 @@
       <c r="T3" t="n">
         <v>94.7</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="n">
         <v>96.6</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>96.7</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>91.4</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>62.7</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>20.6</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>76.1</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>4.9</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>85.7</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>27161.0</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>6703.0</v>
-      </c>
-      <c r="AF3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG3" t="s">
         <v>117</v>
@@ -1470,41 +1470,41 @@
       <c r="T4" t="n">
         <v>93.6</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="n">
         <v>94.6</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>96.6</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>88.7</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>9.8</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>62.3</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>16.6</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>71.7</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>5.1</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>69.2</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>28155.0</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>5863.0</v>
-      </c>
-      <c r="AF4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG4" t="s">
         <v>117</v>
@@ -1673,41 +1673,41 @@
       <c r="T5" t="n">
         <v>93.7</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="n">
         <v>95.3</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>96.7</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>90.4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>63.5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>18.3</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>75.4</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>4.2</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>64.4</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>26965.0</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>3932.0</v>
-      </c>
-      <c r="AF5" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG5" t="s">
         <v>117</v>
@@ -1876,41 +1876,41 @@
       <c r="T6" t="n">
         <v>93.9</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="n">
         <v>95.1</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>94.4</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>82.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>53.9</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>21.1</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>68.1</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>4.9</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>79.2</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>29138.0</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>3038.0</v>
-      </c>
-      <c r="AF6" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG6" t="s">
         <v>117</v>
@@ -2079,41 +2079,41 @@
       <c r="T7" t="n">
         <v>93.9</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="n">
         <v>95.1</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>92.3</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>80.9</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>55.7</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>17.4</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>67.4</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>3.6</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>79.5</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>27946.0</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>5029.0</v>
-      </c>
-      <c r="AF7" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG7" t="s">
         <v>117</v>
@@ -2282,41 +2282,41 @@
       <c r="T8" t="n">
         <v>93.4</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="n">
         <v>94.1</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>96.4</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>89.7</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>61.6</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>73.2</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>79.7</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>28473.0</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>10436.0</v>
-      </c>
-      <c r="AF8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG8" t="s">
         <v>117</v>
@@ -2485,41 +2485,41 @@
       <c r="T9" t="n">
         <v>93.1</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="n">
         <v>95.3</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>92.9</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>84.7</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>49.0</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>27.1</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>57.0</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>17.7</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>73.7</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>28625.0</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>5646.0</v>
-      </c>
-      <c r="AF9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG9" t="s">
         <v>117</v>
@@ -2688,41 +2688,41 @@
       <c r="T10" t="n">
         <v>93.3</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="n">
         <v>95.4</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>95.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>90.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>8.8</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>57.7</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>23.8</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>48.3</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>31.9</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>70.9</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>29575.0</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>7757.0</v>
-      </c>
-      <c r="AF10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG10" t="s">
         <v>117</v>
@@ -2891,41 +2891,41 @@
       <c r="T11" t="n">
         <v>94.0</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="n">
         <v>95.5</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>95.8</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>88.9</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>59.1</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>63.9</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>14.1</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>70.8</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>28945.0</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>7878.0</v>
-      </c>
-      <c r="AF11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG11" t="s">
         <v>117</v>
@@ -3094,41 +3094,41 @@
       <c r="T12" t="n">
         <v>93.5</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="n">
         <v>95.1</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>96.5</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>91.0</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>58.5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>24.7</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>62.7</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>18.9</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>84.3</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>29019.0</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>6762.0</v>
-      </c>
-      <c r="AF12" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG12" t="s">
         <v>117</v>
@@ -3297,41 +3297,41 @@
       <c r="T13" t="n">
         <v>94.4</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="n">
         <v>95.4</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>95.9</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>89.4</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>54.1</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>27.5</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>64.3</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>15.7</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>70.8</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>29580.0</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>9346.0</v>
-      </c>
-      <c r="AF13" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG13" t="s">
         <v>117</v>
@@ -3500,41 +3500,41 @@
       <c r="T14" t="n">
         <v>93.8</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="n">
         <v>95.5</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>96.3</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>91.1</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>60.7</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>22.0</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>64.3</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>16.6</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>81.9</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>29810.0</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>5861.0</v>
-      </c>
-      <c r="AF14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
         <v>117</v>
@@ -3703,41 +3703,41 @@
       <c r="T15" t="n">
         <v>94.2</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="n">
         <v>95.5</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>96.6</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>91.2</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>54.7</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>28.5</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>60.3</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>21.3</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>84.4</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>30002.0</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>5372.0</v>
-      </c>
-      <c r="AF15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG15" t="s">
         <v>117</v>
@@ -3906,41 +3906,41 @@
       <c r="T16" t="n">
         <v>93.3</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="n">
         <v>95.5</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>96.0</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>90.1</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>8.7</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>58.8</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>22.6</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>62.2</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>82.2</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>30019.0</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>7667.0</v>
-      </c>
-      <c r="AF16" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG16" t="s">
         <v>117</v>
@@ -4109,41 +4109,41 @@
       <c r="T17" t="n">
         <v>93.4</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="n">
         <v>95.5</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>96.0</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>89.8</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>59.9</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>21.6</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>61.6</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>18.2</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>84.5</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>29708.0</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>7021.0</v>
-      </c>
-      <c r="AF17" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG17" t="s">
         <v>117</v>
@@ -4312,41 +4312,41 @@
       <c r="T18" t="n">
         <v>94.7</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="n">
         <v>95.7</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>95.5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>88.2</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>8.8</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>57.3</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>22.1</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>63.8</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>13.9</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>72.2</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>28245.0</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>8170.0</v>
-      </c>
-      <c r="AF18" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG18" t="s">
         <v>117</v>
@@ -4515,41 +4515,41 @@
       <c r="T19" t="n">
         <v>93.0</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="n">
         <v>95.4</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>95.6</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>90.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>61.5</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>46.3</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>33.5</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>83.2</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>29948.0</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>3886.0</v>
-      </c>
-      <c r="AF19" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG19" t="s">
         <v>117</v>
